--- a/neoteny/neoteny.xlsx
+++ b/neoteny/neoteny.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jon/Documents/Salamanders/fossilSalamanders/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jon/Documents/Salamanders/neoteny/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24340" yWindow="1200" windowWidth="28160" windowHeight="15220" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2341,8 +2341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D560"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
-      <selection activeCell="C379" sqref="C379"/>
+    <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
+      <selection activeCell="B441" sqref="B441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2372,7 +2372,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <f>0+(0)</f>
+        <f t="shared" ref="C2:C9" si="0">0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <f>0+(0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <f>0+(0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <f>0+(0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2420,7 +2420,7 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <f>0+(0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2432,7 +2432,7 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <f>0+(0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2444,7 +2444,7 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <f>0+(0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2456,8 +2456,7 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <f>0+(0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2468,7 +2467,7 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <f>2+(0)</f>
+        <f t="shared" ref="C10:C16" si="1">2+(0)</f>
         <v>2</v>
       </c>
     </row>
@@ -2480,7 +2479,7 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <f>2+(0)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2492,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="C12">
-        <f>2+(0)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2504,7 +2503,7 @@
         <v>22</v>
       </c>
       <c r="C13">
-        <f>2+(0)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2516,7 +2515,7 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <f>2+(0)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2528,7 +2527,7 @@
         <v>26</v>
       </c>
       <c r="C15">
-        <f>2+(0)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2540,7 +2539,7 @@
         <v>27</v>
       </c>
       <c r="C16">
-        <f>2+(0)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2902,7 +2901,7 @@
         <v>81</v>
       </c>
       <c r="C47">
-        <f>2+(0)</f>
+        <f t="shared" ref="C47:C53" si="2">2+(0)</f>
         <v>2</v>
       </c>
     </row>
@@ -2914,7 +2913,7 @@
         <v>82</v>
       </c>
       <c r="C48">
-        <f>2+(0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2926,7 +2925,7 @@
         <v>84</v>
       </c>
       <c r="C49">
-        <f>2+(0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2938,7 +2937,7 @@
         <v>86</v>
       </c>
       <c r="C50">
-        <f>2+(0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2950,7 +2949,7 @@
         <v>88</v>
       </c>
       <c r="C51">
-        <f>2+(0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2962,7 +2961,7 @@
         <v>90</v>
       </c>
       <c r="C52">
-        <f>2+(0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2974,7 +2973,7 @@
         <v>92</v>
       </c>
       <c r="C53">
-        <f>2+(0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -3320,7 +3319,7 @@
         <v>141</v>
       </c>
       <c r="C82">
-        <f>0+(0)</f>
+        <f t="shared" ref="C82:C87" si="3">0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3332,7 +3331,7 @@
         <v>143</v>
       </c>
       <c r="C83">
-        <f>0+(0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3344,7 +3343,7 @@
         <v>145</v>
       </c>
       <c r="C84">
-        <f>0+(0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3356,7 +3355,7 @@
         <v>147</v>
       </c>
       <c r="C85">
-        <f>0+(0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3368,7 +3367,7 @@
         <v>149</v>
       </c>
       <c r="C86">
-        <f>0+(0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3380,7 +3379,7 @@
         <v>151</v>
       </c>
       <c r="C87">
-        <f>0+(0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3467,7 +3466,7 @@
         <v>161</v>
       </c>
       <c r="C94">
-        <f>0+(0)</f>
+        <f t="shared" ref="C94:C112" si="4">0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3479,7 +3478,7 @@
         <v>163</v>
       </c>
       <c r="C95">
-        <f>0+(0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3491,7 +3490,7 @@
         <v>165</v>
       </c>
       <c r="C96">
-        <f>0+(0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3503,7 +3502,7 @@
         <v>167</v>
       </c>
       <c r="C97">
-        <f>0+(0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3515,7 +3514,7 @@
         <v>169</v>
       </c>
       <c r="C98">
-        <f>0+(0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3527,7 +3526,7 @@
         <v>171</v>
       </c>
       <c r="C99">
-        <f>0+(0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3539,7 +3538,7 @@
         <v>172</v>
       </c>
       <c r="C100">
-        <f>0+(0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3551,7 +3550,7 @@
         <v>173</v>
       </c>
       <c r="C101">
-        <f>0+(0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3563,7 +3562,7 @@
         <v>175</v>
       </c>
       <c r="C102">
-        <f>0+(0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3575,7 +3574,7 @@
         <v>176</v>
       </c>
       <c r="C103">
-        <f>0+(0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3587,7 +3586,7 @@
         <v>177</v>
       </c>
       <c r="C104">
-        <f>0+(0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3599,7 +3598,7 @@
         <v>178</v>
       </c>
       <c r="C105">
-        <f>0+(0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3611,7 +3610,7 @@
         <v>179</v>
       </c>
       <c r="C106">
-        <f>0+(0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3623,7 +3622,7 @@
         <v>181</v>
       </c>
       <c r="C107">
-        <f>0+(0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3635,7 +3634,7 @@
         <v>182</v>
       </c>
       <c r="C108">
-        <f>0+(0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3647,7 +3646,7 @@
         <v>184</v>
       </c>
       <c r="C109">
-        <f>0+(0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3659,7 +3658,7 @@
         <v>185</v>
       </c>
       <c r="C110">
-        <f>0+(0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3671,7 +3670,7 @@
         <v>186</v>
       </c>
       <c r="C111">
-        <f>0+(0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3683,7 +3682,7 @@
         <v>187</v>
       </c>
       <c r="C112">
-        <f>0+(0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3709,7 +3708,7 @@
         <v>190</v>
       </c>
       <c r="C114">
-        <f>0+(0)</f>
+        <f t="shared" ref="C114:C141" si="5">0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3721,7 +3720,7 @@
         <v>191</v>
       </c>
       <c r="C115">
-        <f>0+(0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3733,7 +3732,7 @@
         <v>192</v>
       </c>
       <c r="C116">
-        <f>0+(0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3745,7 +3744,7 @@
         <v>193</v>
       </c>
       <c r="C117">
-        <f>0+(0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3757,7 +3756,7 @@
         <v>194</v>
       </c>
       <c r="C118">
-        <f>0+(0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3769,7 +3768,7 @@
         <v>195</v>
       </c>
       <c r="C119">
-        <f>0+(0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3781,7 +3780,7 @@
         <v>196</v>
       </c>
       <c r="C120">
-        <f>0+(0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3793,7 +3792,7 @@
         <v>197</v>
       </c>
       <c r="C121">
-        <f>0+(0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3805,7 +3804,7 @@
         <v>198</v>
       </c>
       <c r="C122">
-        <f>0+(0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3817,7 +3816,7 @@
         <v>199</v>
       </c>
       <c r="C123">
-        <f>0+(0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3829,7 +3828,7 @@
         <v>200</v>
       </c>
       <c r="C124">
-        <f>0+(0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3841,7 +3840,7 @@
         <v>201</v>
       </c>
       <c r="C125">
-        <f>0+(0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3853,7 +3852,7 @@
         <v>202</v>
       </c>
       <c r="C126">
-        <f>0+(0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3865,7 +3864,7 @@
         <v>203</v>
       </c>
       <c r="C127">
-        <f>0+(0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3877,7 +3876,7 @@
         <v>204</v>
       </c>
       <c r="C128">
-        <f>0+(0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3889,7 +3888,7 @@
         <v>205</v>
       </c>
       <c r="C129">
-        <f>0+(0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3901,7 +3900,7 @@
         <v>206</v>
       </c>
       <c r="C130">
-        <f>0+(0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3913,7 +3912,7 @@
         <v>207</v>
       </c>
       <c r="C131">
-        <f>0+(0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3925,7 +3924,7 @@
         <v>208</v>
       </c>
       <c r="C132">
-        <f>0+(0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3937,7 +3936,7 @@
         <v>209</v>
       </c>
       <c r="C133">
-        <f>0+(0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3949,7 +3948,7 @@
         <v>210</v>
       </c>
       <c r="C134">
-        <f>0+(0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3961,7 +3960,7 @@
         <v>211</v>
       </c>
       <c r="C135">
-        <f>0+(0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3973,7 +3972,7 @@
         <v>212</v>
       </c>
       <c r="C136">
-        <f>0+(0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3985,7 +3984,7 @@
         <v>213</v>
       </c>
       <c r="C137">
-        <f>0+(0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3997,7 +3996,7 @@
         <v>214</v>
       </c>
       <c r="C138">
-        <f>0+(0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4009,7 +4008,7 @@
         <v>22</v>
       </c>
       <c r="C139">
-        <f>0+(0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4021,7 +4020,7 @@
         <v>215</v>
       </c>
       <c r="C140">
-        <f>0+(0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4033,7 +4032,7 @@
         <v>216</v>
       </c>
       <c r="C141">
-        <f>0+(0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4159,7 +4158,7 @@
         <v>226</v>
       </c>
       <c r="C152">
-        <f>0+(0)</f>
+        <f t="shared" ref="C152:C161" si="6">0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4171,7 +4170,7 @@
         <v>227</v>
       </c>
       <c r="C153">
-        <f>0+(0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4183,7 +4182,7 @@
         <v>228</v>
       </c>
       <c r="C154">
-        <f>0+(0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4195,7 +4194,7 @@
         <v>229</v>
       </c>
       <c r="C155">
-        <f>0+(0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4207,7 +4206,7 @@
         <v>230</v>
       </c>
       <c r="C156">
-        <f>0+(0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4219,7 +4218,7 @@
         <v>231</v>
       </c>
       <c r="C157">
-        <f>0+(0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4231,7 +4230,7 @@
         <v>232</v>
       </c>
       <c r="C158">
-        <f>0+(0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4243,7 +4242,7 @@
         <v>233</v>
       </c>
       <c r="C159">
-        <f>0+(0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4255,7 +4254,7 @@
         <v>234</v>
       </c>
       <c r="C160">
-        <f>0+(0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4267,7 +4266,7 @@
         <v>235</v>
       </c>
       <c r="C161">
-        <f>0+(0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4342,7 +4341,7 @@
         <v>242</v>
       </c>
       <c r="C167">
-        <f>0+(0)</f>
+        <f t="shared" ref="C167:C183" si="7">0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4354,7 +4353,7 @@
         <v>243</v>
       </c>
       <c r="C168">
-        <f>0+(0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4366,7 +4365,7 @@
         <v>245</v>
       </c>
       <c r="C169">
-        <f>0+(0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4378,7 +4377,7 @@
         <v>246</v>
       </c>
       <c r="C170">
-        <f>0+(0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4390,7 +4389,7 @@
         <v>247</v>
       </c>
       <c r="C171">
-        <f>0+(0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4402,7 +4401,7 @@
         <v>248</v>
       </c>
       <c r="C172">
-        <f>0+(0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4414,7 +4413,7 @@
         <v>249</v>
       </c>
       <c r="C173">
-        <f>0+(0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4426,7 +4425,7 @@
         <v>250</v>
       </c>
       <c r="C174">
-        <f>0+(0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4438,7 +4437,7 @@
         <v>251</v>
       </c>
       <c r="C175">
-        <f>0+(0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4450,7 +4449,7 @@
         <v>252</v>
       </c>
       <c r="C176">
-        <f>0+(0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4462,7 +4461,7 @@
         <v>254</v>
       </c>
       <c r="C177">
-        <f>0+(0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4474,7 +4473,7 @@
         <v>255</v>
       </c>
       <c r="C178">
-        <f>0+(0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4486,7 +4485,7 @@
         <v>256</v>
       </c>
       <c r="C179">
-        <f>0+(0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4498,7 +4497,7 @@
         <v>257</v>
       </c>
       <c r="C180">
-        <f>0+(0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4510,7 +4509,7 @@
         <v>258</v>
       </c>
       <c r="C181">
-        <f>0+(0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4522,7 +4521,7 @@
         <v>259</v>
       </c>
       <c r="C182">
-        <f>0+(0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4534,7 +4533,7 @@
         <v>260</v>
       </c>
       <c r="C183">
-        <f>0+(0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4558,7 +4557,7 @@
         <v>214</v>
       </c>
       <c r="C185">
-        <f>0+(0)</f>
+        <f t="shared" ref="C185:C195" si="8">0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4570,7 +4569,7 @@
         <v>262</v>
       </c>
       <c r="C186">
-        <f>0+(0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4582,7 +4581,7 @@
         <v>264</v>
       </c>
       <c r="C187">
-        <f>0+(0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4594,7 +4593,7 @@
         <v>240</v>
       </c>
       <c r="C188">
-        <f>0+(0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4606,7 +4605,7 @@
         <v>266</v>
       </c>
       <c r="C189">
-        <f>0+(0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4618,7 +4617,7 @@
         <v>267</v>
       </c>
       <c r="C190">
-        <f>0+(0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4630,7 +4629,7 @@
         <v>268</v>
       </c>
       <c r="C191">
-        <f>0+(0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4642,7 +4641,7 @@
         <v>269</v>
       </c>
       <c r="C192">
-        <f>0+(0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4654,7 +4653,7 @@
         <v>270</v>
       </c>
       <c r="C193">
-        <f>0+(0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4666,7 +4665,7 @@
         <v>271</v>
       </c>
       <c r="C194">
-        <f>0+(0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4678,7 +4677,7 @@
         <v>272</v>
       </c>
       <c r="C195">
-        <f>0+(0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4800,7 +4799,7 @@
         <v>282</v>
       </c>
       <c r="C205">
-        <f>0+(0)</f>
+        <f t="shared" ref="C205:C211" si="9">0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4812,7 +4811,7 @@
         <v>283</v>
       </c>
       <c r="C206">
-        <f>0+(0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4824,7 +4823,7 @@
         <v>284</v>
       </c>
       <c r="C207">
-        <f>0+(0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4836,7 +4835,7 @@
         <v>286</v>
       </c>
       <c r="C208">
-        <f>0+(0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4848,7 +4847,7 @@
         <v>288</v>
       </c>
       <c r="C209">
-        <f>0+(0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4860,7 +4859,7 @@
         <v>289</v>
       </c>
       <c r="C210">
-        <f>0+(0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4872,7 +4871,7 @@
         <v>291</v>
       </c>
       <c r="C211">
-        <f>0+(0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4896,7 +4895,7 @@
         <v>293</v>
       </c>
       <c r="C213">
-        <f>0+(0)</f>
+        <f t="shared" ref="C213:C219" si="10">0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4908,7 +4907,7 @@
         <v>294</v>
       </c>
       <c r="C214">
-        <f>0+(0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -4920,7 +4919,7 @@
         <v>208</v>
       </c>
       <c r="C215">
-        <f>0+(0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -4932,7 +4931,7 @@
         <v>295</v>
       </c>
       <c r="C216">
-        <f>0+(0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -4944,7 +4943,7 @@
         <v>296</v>
       </c>
       <c r="C217">
-        <f>0+(0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -4956,7 +4955,7 @@
         <v>297</v>
       </c>
       <c r="C218">
-        <f>0+(0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -4968,7 +4967,7 @@
         <v>298</v>
       </c>
       <c r="C219">
-        <f>0+(0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -5051,7 +5050,7 @@
         <v>306</v>
       </c>
       <c r="C226">
-        <f>0+(0)</f>
+        <f t="shared" ref="C226:C232" si="11">0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5063,7 +5062,7 @@
         <v>308</v>
       </c>
       <c r="C227">
-        <f>0+(0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5075,7 +5074,7 @@
         <v>309</v>
       </c>
       <c r="C228">
-        <f>0+(0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5087,7 +5086,7 @@
         <v>311</v>
       </c>
       <c r="C229">
-        <f>0+(0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5099,7 +5098,7 @@
         <v>312</v>
       </c>
       <c r="C230">
-        <f>0+(0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5111,7 +5110,7 @@
         <v>313</v>
       </c>
       <c r="C231">
-        <f>0+(0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5123,7 +5122,7 @@
         <v>314</v>
       </c>
       <c r="C232">
-        <f>0+(0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5242,7 +5241,7 @@
         <v>326</v>
       </c>
       <c r="C242">
-        <f>2+(0)</f>
+        <f t="shared" ref="C242:C247" si="12">2+(0)</f>
         <v>2</v>
       </c>
     </row>
@@ -5254,7 +5253,7 @@
         <v>327</v>
       </c>
       <c r="C243">
-        <f>2+(0)</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
@@ -5266,7 +5265,7 @@
         <v>328</v>
       </c>
       <c r="C244">
-        <f>2+(0)</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
@@ -5278,7 +5277,7 @@
         <v>329</v>
       </c>
       <c r="C245">
-        <f>2+(0)</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
@@ -5290,7 +5289,7 @@
         <v>330</v>
       </c>
       <c r="C246">
-        <f>2+(0)</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
@@ -5302,7 +5301,7 @@
         <v>331</v>
       </c>
       <c r="C247">
-        <f>2+(0)</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
@@ -5398,7 +5397,7 @@
         <v>341</v>
       </c>
       <c r="C255">
-        <f>0+(0)</f>
+        <f t="shared" ref="C255:C270" si="13">0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5410,7 +5409,7 @@
         <v>343</v>
       </c>
       <c r="C256">
-        <f>0+(0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -5422,7 +5421,7 @@
         <v>344</v>
       </c>
       <c r="C257">
-        <f>0+(0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -5434,7 +5433,7 @@
         <v>300</v>
       </c>
       <c r="C258">
-        <f>0+(0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -5446,7 +5445,7 @@
         <v>345</v>
       </c>
       <c r="C259">
-        <f>0+(0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -5458,7 +5457,7 @@
         <v>346</v>
       </c>
       <c r="C260">
-        <f>0+(0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -5470,7 +5469,7 @@
         <v>303</v>
       </c>
       <c r="C261">
-        <f>0+(0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -5482,7 +5481,7 @@
         <v>347</v>
       </c>
       <c r="C262">
-        <f>0+(0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -5494,7 +5493,7 @@
         <v>348</v>
       </c>
       <c r="C263">
-        <f>0+(0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -5506,7 +5505,7 @@
         <v>349</v>
       </c>
       <c r="C264">
-        <f>0+(0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -5518,7 +5517,7 @@
         <v>350</v>
       </c>
       <c r="C265">
-        <f>0+(0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -5530,7 +5529,7 @@
         <v>351</v>
       </c>
       <c r="C266">
-        <f>0+(0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -5542,7 +5541,7 @@
         <v>353</v>
       </c>
       <c r="C267">
-        <f>0+(0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -5554,7 +5553,7 @@
         <v>355</v>
       </c>
       <c r="C268">
-        <f>0+(0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -5566,7 +5565,7 @@
         <v>356</v>
       </c>
       <c r="C269">
-        <f>0+(0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -5578,7 +5577,7 @@
         <v>357</v>
       </c>
       <c r="C270">
-        <f>0+(0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -5604,7 +5603,7 @@
         <v>359</v>
       </c>
       <c r="C272">
-        <f>0+(0)</f>
+        <f t="shared" ref="C272:C303" si="14">0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5616,7 +5615,7 @@
         <v>360</v>
       </c>
       <c r="C273">
-        <f>0+(0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5628,7 +5627,7 @@
         <v>362</v>
       </c>
       <c r="C274">
-        <f>0+(0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5640,7 +5639,7 @@
         <v>364</v>
       </c>
       <c r="C275">
-        <f>0+(0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5652,7 +5651,7 @@
         <v>365</v>
       </c>
       <c r="C276">
-        <f>0+(0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5664,7 +5663,7 @@
         <v>319</v>
       </c>
       <c r="C277">
-        <f>0+(0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5676,7 +5675,7 @@
         <v>366</v>
       </c>
       <c r="C278">
-        <f>0+(0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5688,7 +5687,7 @@
         <v>355</v>
       </c>
       <c r="C279">
-        <f>0+(0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5700,7 +5699,7 @@
         <v>367</v>
       </c>
       <c r="C280">
-        <f>0+(0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5712,7 +5711,7 @@
         <v>368</v>
       </c>
       <c r="C281">
-        <f>0+(0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5724,7 +5723,7 @@
         <v>369</v>
       </c>
       <c r="C282">
-        <f>0+(0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5736,7 +5735,7 @@
         <v>370</v>
       </c>
       <c r="C283">
-        <f>0+(0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5748,7 +5747,7 @@
         <v>371</v>
       </c>
       <c r="C284">
-        <f>0+(0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5760,7 +5759,7 @@
         <v>372</v>
       </c>
       <c r="C285">
-        <f>0+(0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5772,7 +5771,7 @@
         <v>373</v>
       </c>
       <c r="C286">
-        <f>0+(0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5784,7 +5783,7 @@
         <v>374</v>
       </c>
       <c r="C287">
-        <f>0+(0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5796,7 +5795,7 @@
         <v>375</v>
       </c>
       <c r="C288">
-        <f>0+(0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5808,7 +5807,7 @@
         <v>376</v>
       </c>
       <c r="C289">
-        <f>0+(0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5820,7 +5819,7 @@
         <v>377</v>
       </c>
       <c r="C290">
-        <f>0+(0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5832,7 +5831,7 @@
         <v>378</v>
       </c>
       <c r="C291">
-        <f>0+(0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5844,7 +5843,7 @@
         <v>379</v>
       </c>
       <c r="C292">
-        <f>0+(0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5856,7 +5855,7 @@
         <v>380</v>
       </c>
       <c r="C293">
-        <f>0+(0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5868,7 +5867,7 @@
         <v>382</v>
       </c>
       <c r="C294">
-        <f>0+(0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5880,7 +5879,7 @@
         <v>383</v>
       </c>
       <c r="C295">
-        <f>0+(0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5892,7 +5891,7 @@
         <v>384</v>
       </c>
       <c r="C296">
-        <f>0+(0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5904,7 +5903,7 @@
         <v>385</v>
       </c>
       <c r="C297">
-        <f>0+(0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5916,7 +5915,7 @@
         <v>22</v>
       </c>
       <c r="C298">
-        <f>0+(0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5928,7 +5927,7 @@
         <v>386</v>
       </c>
       <c r="C299">
-        <f>0+(0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5940,7 +5939,7 @@
         <v>387</v>
       </c>
       <c r="C300">
-        <f>0+(0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5952,7 +5951,7 @@
         <v>388</v>
       </c>
       <c r="C301">
-        <f>0+(0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5964,7 +5963,7 @@
         <v>389</v>
       </c>
       <c r="C302">
-        <f>0+(0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5976,7 +5975,7 @@
         <v>390</v>
       </c>
       <c r="C303">
-        <f>0+(0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5988,7 +5987,7 @@
         <v>391</v>
       </c>
       <c r="C304">
-        <f>0+(0)</f>
+        <f t="shared" ref="C304:C335" si="15">0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6000,7 +5999,7 @@
         <v>392</v>
       </c>
       <c r="C305">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6012,7 +6011,7 @@
         <v>393</v>
       </c>
       <c r="C306">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6024,7 +6023,7 @@
         <v>394</v>
       </c>
       <c r="C307">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6036,7 +6035,7 @@
         <v>395</v>
       </c>
       <c r="C308">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6048,7 +6047,7 @@
         <v>396</v>
       </c>
       <c r="C309">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6060,7 +6059,7 @@
         <v>362</v>
       </c>
       <c r="C310">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6072,7 +6071,7 @@
         <v>397</v>
       </c>
       <c r="C311">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6084,7 +6083,7 @@
         <v>398</v>
       </c>
       <c r="C312">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6096,7 +6095,7 @@
         <v>399</v>
       </c>
       <c r="C313">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6108,7 +6107,7 @@
         <v>400</v>
       </c>
       <c r="C314">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6120,7 +6119,7 @@
         <v>328</v>
       </c>
       <c r="C315">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6132,7 +6131,7 @@
         <v>401</v>
       </c>
       <c r="C316">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6144,7 +6143,7 @@
         <v>402</v>
       </c>
       <c r="C317">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6156,7 +6155,7 @@
         <v>403</v>
       </c>
       <c r="C318">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6168,7 +6167,7 @@
         <v>404</v>
       </c>
       <c r="C319">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6180,7 +6179,7 @@
         <v>405</v>
       </c>
       <c r="C320">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6192,7 +6191,7 @@
         <v>406</v>
       </c>
       <c r="C321">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6204,7 +6203,7 @@
         <v>407</v>
       </c>
       <c r="C322">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6216,7 +6215,7 @@
         <v>408</v>
       </c>
       <c r="C323">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6228,7 +6227,7 @@
         <v>409</v>
       </c>
       <c r="C324">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6240,7 +6239,7 @@
         <v>410</v>
       </c>
       <c r="C325">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6252,7 +6251,7 @@
         <v>411</v>
       </c>
       <c r="C326">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6264,7 +6263,7 @@
         <v>412</v>
       </c>
       <c r="C327">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6276,7 +6275,7 @@
         <v>413</v>
       </c>
       <c r="C328">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6288,7 +6287,7 @@
         <v>414</v>
       </c>
       <c r="C329">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6300,7 +6299,7 @@
         <v>415</v>
       </c>
       <c r="C330">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6312,7 +6311,7 @@
         <v>416</v>
       </c>
       <c r="C331">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6324,7 +6323,7 @@
         <v>417</v>
       </c>
       <c r="C332">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6336,7 +6335,7 @@
         <v>418</v>
       </c>
       <c r="C333">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6348,7 +6347,7 @@
         <v>419</v>
       </c>
       <c r="C334">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6360,7 +6359,7 @@
         <v>420</v>
       </c>
       <c r="C335">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6372,7 +6371,7 @@
         <v>421</v>
       </c>
       <c r="C336">
-        <f>0+(0)</f>
+        <f t="shared" ref="C336:C352" si="16">0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6384,7 +6383,7 @@
         <v>301</v>
       </c>
       <c r="C337">
-        <f>0+(0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6396,7 +6395,7 @@
         <v>422</v>
       </c>
       <c r="C338">
-        <f>0+(0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6408,7 +6407,7 @@
         <v>423</v>
       </c>
       <c r="C339">
-        <f>0+(0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6420,7 +6419,7 @@
         <v>424</v>
       </c>
       <c r="C340">
-        <f>0+(0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6432,7 +6431,7 @@
         <v>425</v>
       </c>
       <c r="C341">
-        <f>0+(0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6444,7 +6443,7 @@
         <v>426</v>
       </c>
       <c r="C342">
-        <f>0+(0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6456,7 +6455,7 @@
         <v>427</v>
       </c>
       <c r="C343">
-        <f>0+(0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6468,7 +6467,7 @@
         <v>428</v>
       </c>
       <c r="C344">
-        <f>0+(0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6480,7 +6479,7 @@
         <v>429</v>
       </c>
       <c r="C345">
-        <f>0+(0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6492,7 +6491,7 @@
         <v>430</v>
       </c>
       <c r="C346">
-        <f>0+(0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6504,7 +6503,7 @@
         <v>431</v>
       </c>
       <c r="C347">
-        <f>0+(0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6516,7 +6515,7 @@
         <v>433</v>
       </c>
       <c r="C348">
-        <f>0+(0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6528,7 +6527,7 @@
         <v>435</v>
       </c>
       <c r="C349">
-        <f>0+(0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6540,7 +6539,7 @@
         <v>301</v>
       </c>
       <c r="C350">
-        <f>0+(0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6552,7 +6551,7 @@
         <v>437</v>
       </c>
       <c r="C351">
-        <f>0+(0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6564,7 +6563,7 @@
         <v>439</v>
       </c>
       <c r="C352">
-        <f>0+(0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6654,7 +6653,7 @@
         <v>448</v>
       </c>
       <c r="C359">
-        <f>0+(0)</f>
+        <f t="shared" ref="C359:C364" si="17">0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6666,7 +6665,7 @@
         <v>449</v>
       </c>
       <c r="C360">
-        <f>0+(0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6678,7 +6677,7 @@
         <v>450</v>
       </c>
       <c r="C361">
-        <f>0+(0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6690,7 +6689,7 @@
         <v>451</v>
       </c>
       <c r="C362">
-        <f>0+(0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6702,7 +6701,7 @@
         <v>452</v>
       </c>
       <c r="C363">
-        <f>0+(0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6714,7 +6713,7 @@
         <v>453</v>
       </c>
       <c r="C364">
-        <f>0+(0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6930,7 +6929,7 @@
         <v>364</v>
       </c>
       <c r="C382">
-        <f>0+(0)</f>
+        <f t="shared" ref="C382:C387" si="18">0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6942,7 +6941,7 @@
         <v>473</v>
       </c>
       <c r="C383">
-        <f>0+(0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -6954,7 +6953,7 @@
         <v>474</v>
       </c>
       <c r="C384">
-        <f>0+(0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -6966,7 +6965,7 @@
         <v>475</v>
       </c>
       <c r="C385">
-        <f>0+(0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -6978,7 +6977,7 @@
         <v>476</v>
       </c>
       <c r="C386">
-        <f>0+(0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -6990,7 +6989,7 @@
         <v>477</v>
       </c>
       <c r="C387">
-        <f>0+(0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -7016,7 +7015,7 @@
         <v>479</v>
       </c>
       <c r="C389">
-        <f>0+(0)</f>
+        <f t="shared" ref="C389:C420" si="19">0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7028,7 +7027,7 @@
         <v>480</v>
       </c>
       <c r="C390">
-        <f>0+(0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -7040,7 +7039,7 @@
         <v>481</v>
       </c>
       <c r="C391">
-        <f>0+(0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -7052,7 +7051,7 @@
         <v>482</v>
       </c>
       <c r="C392">
-        <f>0+(0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -7064,7 +7063,7 @@
         <v>483</v>
       </c>
       <c r="C393">
-        <f>0+(0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -7076,7 +7075,7 @@
         <v>484</v>
       </c>
       <c r="C394">
-        <f>0+(0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -7088,7 +7087,7 @@
         <v>485</v>
       </c>
       <c r="C395">
-        <f>0+(0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -7100,7 +7099,7 @@
         <v>486</v>
       </c>
       <c r="C396">
-        <f>0+(0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -7112,7 +7111,7 @@
         <v>487</v>
       </c>
       <c r="C397">
-        <f>0+(0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -7124,7 +7123,7 @@
         <v>488</v>
       </c>
       <c r="C398">
-        <f>0+(0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -7136,7 +7135,7 @@
         <v>490</v>
       </c>
       <c r="C399">
-        <f>0+(0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -7148,7 +7147,7 @@
         <v>492</v>
       </c>
       <c r="C400">
-        <f>0+(0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -7160,7 +7159,7 @@
         <v>493</v>
       </c>
       <c r="C401">
-        <f>0+(0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -7172,7 +7171,7 @@
         <v>494</v>
       </c>
       <c r="C402">
-        <f>0+(0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -7184,7 +7183,7 @@
         <v>495</v>
       </c>
       <c r="C403">
-        <f>0+(0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -7196,7 +7195,7 @@
         <v>496</v>
       </c>
       <c r="C404">
-        <f>0+(0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -7208,7 +7207,7 @@
         <v>497</v>
       </c>
       <c r="C405">
-        <f>0+(0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -7220,7 +7219,7 @@
         <v>233</v>
       </c>
       <c r="C406">
-        <f>0+(0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -7232,7 +7231,7 @@
         <v>499</v>
       </c>
       <c r="C407">
-        <f>0+(0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -7244,7 +7243,7 @@
         <v>500</v>
       </c>
       <c r="C408">
-        <f>0+(0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -7256,7 +7255,7 @@
         <v>501</v>
       </c>
       <c r="C409">
-        <f>0+(0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -7268,7 +7267,7 @@
         <v>502</v>
       </c>
       <c r="C410">
-        <f>0+(0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -7280,7 +7279,7 @@
         <v>503</v>
       </c>
       <c r="C411">
-        <f>0+(0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -7292,7 +7291,7 @@
         <v>504</v>
       </c>
       <c r="C412">
-        <f>0+(0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -7304,7 +7303,7 @@
         <v>505</v>
       </c>
       <c r="C413">
-        <f>0+(0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -7316,7 +7315,7 @@
         <v>506</v>
       </c>
       <c r="C414">
-        <f>0+(0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -7328,7 +7327,7 @@
         <v>507</v>
       </c>
       <c r="C415">
-        <f>0+(0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -7340,7 +7339,7 @@
         <v>508</v>
       </c>
       <c r="C416">
-        <f>0+(0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -7352,7 +7351,7 @@
         <v>510</v>
       </c>
       <c r="C417">
-        <f>0+(0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -7364,7 +7363,7 @@
         <v>511</v>
       </c>
       <c r="C418">
-        <f>0+(0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -7376,7 +7375,7 @@
         <v>512</v>
       </c>
       <c r="C419">
-        <f>0+(0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -7388,7 +7387,7 @@
         <v>465</v>
       </c>
       <c r="C420">
-        <f>0+(0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -7400,7 +7399,7 @@
         <v>514</v>
       </c>
       <c r="C421">
-        <f>0+(0)</f>
+        <f t="shared" ref="C421:C452" si="20">0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7412,7 +7411,7 @@
         <v>515</v>
       </c>
       <c r="C422">
-        <f>0+(0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7424,7 +7423,7 @@
         <v>516</v>
       </c>
       <c r="C423">
-        <f>0+(0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7436,7 +7435,7 @@
         <v>518</v>
       </c>
       <c r="C424">
-        <f>0+(0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7448,7 +7447,7 @@
         <v>520</v>
       </c>
       <c r="C425">
-        <f>0+(0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7460,7 +7459,7 @@
         <v>521</v>
       </c>
       <c r="C426">
-        <f>0+(0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7472,7 +7471,7 @@
         <v>522</v>
       </c>
       <c r="C427">
-        <f>0+(0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7484,7 +7483,7 @@
         <v>523</v>
       </c>
       <c r="C428">
-        <f>0+(0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7496,7 +7495,7 @@
         <v>524</v>
       </c>
       <c r="C429">
-        <f>0+(0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7508,7 +7507,7 @@
         <v>525</v>
       </c>
       <c r="C430">
-        <f>0+(0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7520,7 +7519,7 @@
         <v>526</v>
       </c>
       <c r="C431">
-        <f>0+(0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7532,7 +7531,7 @@
         <v>527</v>
       </c>
       <c r="C432">
-        <f>0+(0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7544,7 +7543,7 @@
         <v>528</v>
       </c>
       <c r="C433">
-        <f>0+(0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7556,7 +7555,7 @@
         <v>529</v>
       </c>
       <c r="C434">
-        <f>0+(0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7568,7 +7567,7 @@
         <v>530</v>
       </c>
       <c r="C435">
-        <f>0+(0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7580,7 +7579,7 @@
         <v>531</v>
       </c>
       <c r="C436">
-        <f>0+(0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7592,7 +7591,7 @@
         <v>532</v>
       </c>
       <c r="C437">
-        <f>0+(0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7604,7 +7603,7 @@
         <v>533</v>
       </c>
       <c r="C438">
-        <f>0+(0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7616,7 +7615,7 @@
         <v>534</v>
       </c>
       <c r="C439">
-        <f>0+(0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7628,7 +7627,7 @@
         <v>535</v>
       </c>
       <c r="C440">
-        <f>0+(0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7640,7 +7639,7 @@
         <v>536</v>
       </c>
       <c r="C441">
-        <f>0+(0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7652,7 +7651,7 @@
         <v>537</v>
       </c>
       <c r="C442">
-        <f>0+(0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7664,7 +7663,7 @@
         <v>53</v>
       </c>
       <c r="C443">
-        <f>0+(0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7676,7 +7675,7 @@
         <v>538</v>
       </c>
       <c r="C444">
-        <f>0+(0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7688,7 +7687,7 @@
         <v>539</v>
       </c>
       <c r="C445">
-        <f>0+(0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7700,7 +7699,7 @@
         <v>541</v>
       </c>
       <c r="C446">
-        <f>0+(0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7712,7 +7711,7 @@
         <v>542</v>
       </c>
       <c r="C447">
-        <f>0+(0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7724,7 +7723,7 @@
         <v>543</v>
       </c>
       <c r="C448">
-        <f>0+(0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7736,7 +7735,7 @@
         <v>544</v>
       </c>
       <c r="C449">
-        <f>0+(0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7748,7 +7747,7 @@
         <v>545</v>
       </c>
       <c r="C450">
-        <f>0+(0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7760,7 +7759,7 @@
         <v>546</v>
       </c>
       <c r="C451">
-        <f>0+(0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7772,7 +7771,7 @@
         <v>547</v>
       </c>
       <c r="C452">
-        <f>0+(0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7784,7 +7783,7 @@
         <v>512</v>
       </c>
       <c r="C453">
-        <f>0+(0)</f>
+        <f t="shared" ref="C453:C484" si="21">0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7796,7 +7795,7 @@
         <v>548</v>
       </c>
       <c r="C454">
-        <f>0+(0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -7808,7 +7807,7 @@
         <v>549</v>
       </c>
       <c r="C455">
-        <f>0+(0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -7820,7 +7819,7 @@
         <v>551</v>
       </c>
       <c r="C456">
-        <f>0+(0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -7832,7 +7831,7 @@
         <v>553</v>
       </c>
       <c r="C457">
-        <f>0+(0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -7844,7 +7843,7 @@
         <v>554</v>
       </c>
       <c r="C458">
-        <f>0+(0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -7856,7 +7855,7 @@
         <v>556</v>
       </c>
       <c r="C459">
-        <f>0+(0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -7868,7 +7867,7 @@
         <v>557</v>
       </c>
       <c r="C460">
-        <f>0+(0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -7880,7 +7879,7 @@
         <v>558</v>
       </c>
       <c r="C461">
-        <f>0+(0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -7892,7 +7891,7 @@
         <v>559</v>
       </c>
       <c r="C462">
-        <f>0+(0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -7904,7 +7903,7 @@
         <v>560</v>
       </c>
       <c r="C463">
-        <f>0+(0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -7916,7 +7915,7 @@
         <v>561</v>
       </c>
       <c r="C464">
-        <f>0+(0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -7928,7 +7927,7 @@
         <v>562</v>
       </c>
       <c r="C465">
-        <f>0+(0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -7940,7 +7939,7 @@
         <v>563</v>
       </c>
       <c r="C466">
-        <f>0+(0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -7952,7 +7951,7 @@
         <v>565</v>
       </c>
       <c r="C467">
-        <f>0+(0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -7964,7 +7963,7 @@
         <v>380</v>
       </c>
       <c r="C468">
-        <f>0+(0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -7976,7 +7975,7 @@
         <v>566</v>
       </c>
       <c r="C469">
-        <f>0+(0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -7988,7 +7987,7 @@
         <v>567</v>
       </c>
       <c r="C470">
-        <f>0+(0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -8000,7 +7999,7 @@
         <v>568</v>
       </c>
       <c r="C471">
-        <f>0+(0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -8012,7 +8011,7 @@
         <v>569</v>
       </c>
       <c r="C472">
-        <f>0+(0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -8024,7 +8023,7 @@
         <v>570</v>
       </c>
       <c r="C473">
-        <f>0+(0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -8036,7 +8035,7 @@
         <v>571</v>
       </c>
       <c r="C474">
-        <f>0+(0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -8048,7 +8047,7 @@
         <v>572</v>
       </c>
       <c r="C475">
-        <f>0+(0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -8060,7 +8059,7 @@
         <v>573</v>
       </c>
       <c r="C476">
-        <f>0+(0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -8072,7 +8071,7 @@
         <v>574</v>
       </c>
       <c r="C477">
-        <f>0+(0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -8084,7 +8083,7 @@
         <v>575</v>
       </c>
       <c r="C478">
-        <f>0+(0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -8096,7 +8095,7 @@
         <v>576</v>
       </c>
       <c r="C479">
-        <f>0+(0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -8108,7 +8107,7 @@
         <v>577</v>
       </c>
       <c r="C480">
-        <f>0+(0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -8120,7 +8119,7 @@
         <v>578</v>
       </c>
       <c r="C481">
-        <f>0+(0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -8132,7 +8131,7 @@
         <v>579</v>
       </c>
       <c r="C482">
-        <f>0+(0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -8144,7 +8143,7 @@
         <v>580</v>
       </c>
       <c r="C483">
-        <f>0+(0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -8156,7 +8155,7 @@
         <v>581</v>
       </c>
       <c r="C484">
-        <f>0+(0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -8168,7 +8167,7 @@
         <v>582</v>
       </c>
       <c r="C485">
-        <f>0+(0)</f>
+        <f t="shared" ref="C485:C516" si="22">0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8180,7 +8179,7 @@
         <v>583</v>
       </c>
       <c r="C486">
-        <f>0+(0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8192,7 +8191,7 @@
         <v>584</v>
       </c>
       <c r="C487">
-        <f>0+(0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8204,7 +8203,7 @@
         <v>585</v>
       </c>
       <c r="C488">
-        <f>0+(0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8216,7 +8215,7 @@
         <v>586</v>
       </c>
       <c r="C489">
-        <f>0+(0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8228,7 +8227,7 @@
         <v>587</v>
       </c>
       <c r="C490">
-        <f>0+(0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8240,7 +8239,7 @@
         <v>588</v>
       </c>
       <c r="C491">
-        <f>0+(0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8252,7 +8251,7 @@
         <v>589</v>
       </c>
       <c r="C492">
-        <f>0+(0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8264,7 +8263,7 @@
         <v>450</v>
       </c>
       <c r="C493">
-        <f>0+(0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8276,7 +8275,7 @@
         <v>590</v>
       </c>
       <c r="C494">
-        <f>0+(0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8288,7 +8287,7 @@
         <v>592</v>
       </c>
       <c r="C495">
-        <f>0+(0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8300,7 +8299,7 @@
         <v>593</v>
       </c>
       <c r="C496">
-        <f>0+(0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8312,7 +8311,7 @@
         <v>594</v>
       </c>
       <c r="C497">
-        <f>0+(0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8324,7 +8323,7 @@
         <v>595</v>
       </c>
       <c r="C498">
-        <f>0+(0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8336,7 +8335,7 @@
         <v>596</v>
       </c>
       <c r="C499">
-        <f>0+(0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8348,7 +8347,7 @@
         <v>53</v>
       </c>
       <c r="C500">
-        <f>0+(0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8360,7 +8359,7 @@
         <v>597</v>
       </c>
       <c r="C501">
-        <f>0+(0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8372,7 +8371,7 @@
         <v>598</v>
       </c>
       <c r="C502">
-        <f>0+(0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8384,7 +8383,7 @@
         <v>599</v>
       </c>
       <c r="C503">
-        <f>0+(0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8396,7 +8395,7 @@
         <v>600</v>
       </c>
       <c r="C504">
-        <f>0+(0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8408,7 +8407,7 @@
         <v>601</v>
       </c>
       <c r="C505">
-        <f>0+(0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8420,7 +8419,7 @@
         <v>602</v>
       </c>
       <c r="C506">
-        <f>0+(0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8432,7 +8431,7 @@
         <v>603</v>
       </c>
       <c r="C507">
-        <f>0+(0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8444,7 +8443,7 @@
         <v>202</v>
       </c>
       <c r="C508">
-        <f>0+(0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8456,7 +8455,7 @@
         <v>604</v>
       </c>
       <c r="C509">
-        <f>0+(0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8468,7 +8467,7 @@
         <v>605</v>
       </c>
       <c r="C510">
-        <f>0+(0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8480,7 +8479,7 @@
         <v>606</v>
       </c>
       <c r="C511">
-        <f>0+(0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8492,7 +8491,7 @@
         <v>607</v>
       </c>
       <c r="C512">
-        <f>0+(0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8504,7 +8503,7 @@
         <v>608</v>
       </c>
       <c r="C513">
-        <f>0+(0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8516,7 +8515,7 @@
         <v>609</v>
       </c>
       <c r="C514">
-        <f>0+(0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8528,7 +8527,7 @@
         <v>610</v>
       </c>
       <c r="C515">
-        <f>0+(0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8540,7 +8539,7 @@
         <v>611</v>
       </c>
       <c r="C516">
-        <f>0+(0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8552,7 +8551,7 @@
         <v>612</v>
       </c>
       <c r="C517">
-        <f>0+(0)</f>
+        <f t="shared" ref="C517:C548" si="23">0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8564,7 +8563,7 @@
         <v>613</v>
       </c>
       <c r="C518">
-        <f>0+(0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8576,7 +8575,7 @@
         <v>614</v>
       </c>
       <c r="C519">
-        <f>0+(0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8588,7 +8587,7 @@
         <v>615</v>
       </c>
       <c r="C520">
-        <f>0+(0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8600,7 +8599,7 @@
         <v>616</v>
       </c>
       <c r="C521">
-        <f>0+(0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8612,7 +8611,7 @@
         <v>617</v>
       </c>
       <c r="C522">
-        <f>0+(0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8624,7 +8623,7 @@
         <v>618</v>
       </c>
       <c r="C523">
-        <f>0+(0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8636,7 +8635,7 @@
         <v>619</v>
       </c>
       <c r="C524">
-        <f>0+(0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8648,7 +8647,7 @@
         <v>500</v>
       </c>
       <c r="C525">
-        <f>0+(0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8660,7 +8659,7 @@
         <v>620</v>
       </c>
       <c r="C526">
-        <f>0+(0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8672,7 +8671,7 @@
         <v>621</v>
       </c>
       <c r="C527">
-        <f>0+(0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8684,7 +8683,7 @@
         <v>622</v>
       </c>
       <c r="C528">
-        <f>0+(0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8696,7 +8695,7 @@
         <v>623</v>
       </c>
       <c r="C529">
-        <f>0+(0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8708,7 +8707,7 @@
         <v>624</v>
       </c>
       <c r="C530">
-        <f>0+(0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8720,7 +8719,7 @@
         <v>625</v>
       </c>
       <c r="C531">
-        <f>0+(0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8732,7 +8731,7 @@
         <v>626</v>
       </c>
       <c r="C532">
-        <f>0+(0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8744,7 +8743,7 @@
         <v>627</v>
       </c>
       <c r="C533">
-        <f>0+(0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8756,7 +8755,7 @@
         <v>628</v>
       </c>
       <c r="C534">
-        <f>0+(0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8768,7 +8767,7 @@
         <v>629</v>
       </c>
       <c r="C535">
-        <f>0+(0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8780,7 +8779,7 @@
         <v>630</v>
       </c>
       <c r="C536">
-        <f>0+(0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8792,7 +8791,7 @@
         <v>631</v>
       </c>
       <c r="C537">
-        <f>0+(0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8804,7 +8803,7 @@
         <v>632</v>
       </c>
       <c r="C538">
-        <f>0+(0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8816,7 +8815,7 @@
         <v>633</v>
       </c>
       <c r="C539">
-        <f>0+(0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8828,7 +8827,7 @@
         <v>634</v>
       </c>
       <c r="C540">
-        <f>0+(0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8840,7 +8839,7 @@
         <v>635</v>
       </c>
       <c r="C541">
-        <f>0+(0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8852,7 +8851,7 @@
         <v>636</v>
       </c>
       <c r="C542">
-        <f>0+(0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8864,7 +8863,7 @@
         <v>637</v>
       </c>
       <c r="C543">
-        <f>0+(0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8876,7 +8875,7 @@
         <v>638</v>
       </c>
       <c r="C544">
-        <f>0+(0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8888,7 +8887,7 @@
         <v>639</v>
       </c>
       <c r="C545">
-        <f>0+(0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8900,7 +8899,7 @@
         <v>640</v>
       </c>
       <c r="C546">
-        <f>0+(0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8912,7 +8911,7 @@
         <v>641</v>
       </c>
       <c r="C547">
-        <f>0+(0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8924,7 +8923,7 @@
         <v>642</v>
       </c>
       <c r="C548">
-        <f>0+(0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8936,7 +8935,7 @@
         <v>643</v>
       </c>
       <c r="C549">
-        <f>0+(0)</f>
+        <f t="shared" ref="C549:C559" si="24">0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8948,7 +8947,7 @@
         <v>644</v>
       </c>
       <c r="C550">
-        <f>0+(0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -8960,7 +8959,7 @@
         <v>22</v>
       </c>
       <c r="C551">
-        <f>0+(0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -8972,7 +8971,7 @@
         <v>645</v>
       </c>
       <c r="C552">
-        <f>0+(0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -8984,7 +8983,7 @@
         <v>380</v>
       </c>
       <c r="C553">
-        <f>0+(0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -8996,7 +8995,7 @@
         <v>646</v>
       </c>
       <c r="C554">
-        <f>0+(0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -9008,7 +9007,7 @@
         <v>647</v>
       </c>
       <c r="C555">
-        <f>0+(0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -9020,7 +9019,7 @@
         <v>258</v>
       </c>
       <c r="C556">
-        <f>0+(0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -9032,7 +9031,7 @@
         <v>648</v>
       </c>
       <c r="C557">
-        <f>0+(0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -9044,7 +9043,7 @@
         <v>649</v>
       </c>
       <c r="C558">
-        <f>0+(0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -9056,7 +9055,7 @@
         <v>650</v>
       </c>
       <c r="C559">
-        <f>0+(0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>

--- a/neoteny/neoteny.xlsx
+++ b/neoteny/neoteny.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15220" tabRatio="500"/>
+    <workbookView xWindow="16420" yWindow="800" windowWidth="10000" windowHeight="15220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="673">
   <si>
     <t>species</t>
   </si>
@@ -2021,10 +2021,31 @@
     <t>Larson 1980</t>
   </si>
   <si>
-    <t>Linke and Roth 1990</t>
-  </si>
-  <si>
     <t>report from husbandry (caudata.org)</t>
+  </si>
+  <si>
+    <t>Holman 2003</t>
+  </si>
+  <si>
+    <t>presumed</t>
+  </si>
+  <si>
+    <t>metamorphosed</t>
+  </si>
+  <si>
+    <t>gills Rocek 96</t>
+  </si>
+  <si>
+    <t>larval characters retained accd to Smirnov et al 2002</t>
+  </si>
+  <si>
+    <t>Canestrelli and Bagnoli 2007</t>
+  </si>
+  <si>
+    <t>Stanescu et al 2014</t>
+  </si>
+  <si>
+    <t>Linke and Roth 1990 discuss miniturization</t>
   </si>
 </sst>
 </file>
@@ -2341,8 +2362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D560"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
-      <selection activeCell="B441" sqref="B441"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C356" sqref="C356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2372,7 +2393,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C9" si="0">0+(0)</f>
+        <f t="shared" ref="C2:C8" si="0">0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2543,7 +2564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -2554,7 +2575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2565,7 +2586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2576,7 +2597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -2587,7 +2608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2599,7 +2620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -2611,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2622,8 +2643,11 @@
         <f>2+(0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -2635,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -2647,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -2659,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -2671,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -2683,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -2695,7 +2719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -2706,7 +2730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -2718,7 +2742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -2730,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -2741,7 +2765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -2752,7 +2776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -2763,7 +2787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -2771,11 +2795,13 @@
         <v>60</v>
       </c>
       <c r="C36">
-        <f>0+(0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -2787,7 +2813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -2799,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -2811,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -2822,7 +2848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>69</v>
       </c>
@@ -2833,7 +2859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>71</v>
       </c>
@@ -2845,7 +2871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -2857,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -2869,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -2881,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>77</v>
       </c>
@@ -2893,7 +2919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>80</v>
       </c>
@@ -2905,7 +2931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>80</v>
       </c>
@@ -2917,7 +2943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>83</v>
       </c>
@@ -2929,7 +2955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>85</v>
       </c>
@@ -2941,7 +2967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>87</v>
       </c>
@@ -2953,7 +2979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -2965,7 +2991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>91</v>
       </c>
@@ -2977,7 +3003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>93</v>
       </c>
@@ -2985,11 +3011,13 @@
         <v>53</v>
       </c>
       <c r="C54">
-        <f>0+(0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>94</v>
       </c>
@@ -3001,7 +3029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>95</v>
       </c>
@@ -3012,8 +3040,11 @@
         <f>0+(0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>97</v>
       </c>
@@ -3024,8 +3055,11 @@
         <f>0+(0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>99</v>
       </c>
@@ -3037,7 +3071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>101</v>
       </c>
@@ -3049,7 +3083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>103</v>
       </c>
@@ -3060,8 +3094,11 @@
         <f>0+(0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>105</v>
       </c>
@@ -3073,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>107</v>
       </c>
@@ -3085,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>109</v>
       </c>
@@ -3097,7 +3134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>111</v>
       </c>
@@ -3168,8 +3205,7 @@
         <v>119</v>
       </c>
       <c r="C69">
-        <f>0+(0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -3228,8 +3264,10 @@
         <v>128</v>
       </c>
       <c r="C74">
-        <f>0+(0)</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -3319,8 +3357,10 @@
         <v>141</v>
       </c>
       <c r="C82">
-        <f t="shared" ref="C82:C87" si="3">0+(0)</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -3331,8 +3371,10 @@
         <v>143</v>
       </c>
       <c r="C83">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -3343,7 +3385,7 @@
         <v>145</v>
       </c>
       <c r="C84">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C84:C87" si="3">0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3478,8 +3520,10 @@
         <v>163</v>
       </c>
       <c r="C95">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D95" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -4413,8 +4457,10 @@
         <v>249</v>
       </c>
       <c r="C173">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D173" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -4788,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="D204" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -5030,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>12</v>
       </c>
@@ -5041,8 +5087,11 @@
         <f>1+(0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D225" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>12</v>
       </c>
@@ -5054,7 +5103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>307</v>
       </c>
@@ -5066,7 +5115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>307</v>
       </c>
@@ -5078,7 +5127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>310</v>
       </c>
@@ -5090,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>310</v>
       </c>
@@ -5102,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>310</v>
       </c>
@@ -5114,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>310</v>
       </c>
@@ -5126,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>315</v>
       </c>
@@ -5138,7 +5187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>315</v>
       </c>
@@ -5150,7 +5199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>10</v>
       </c>
@@ -5162,7 +5211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>10</v>
       </c>
@@ -5174,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>10</v>
       </c>
@@ -5186,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>10</v>
       </c>
@@ -5198,7 +5247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>10</v>
       </c>
@@ -5210,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>10</v>
       </c>
@@ -6614,8 +6663,7 @@
         <v>445</v>
       </c>
       <c r="C356">
-        <f>2+(0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
@@ -6798,8 +6846,7 @@
         <v>461</v>
       </c>
       <c r="C371">
-        <f>0+(0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
@@ -7001,10 +7048,10 @@
         <v>478</v>
       </c>
       <c r="C388">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D388" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
@@ -9067,7 +9114,7 @@
         <v>651</v>
       </c>
       <c r="C560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/neoteny/neoteny.xlsx
+++ b/neoteny/neoteny.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16420" yWindow="800" windowWidth="10000" windowHeight="15220" tabRatio="500"/>
+    <workbookView xWindow="37780" yWindow="1900" windowWidth="10000" windowHeight="15220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="683">
   <si>
     <t>species</t>
   </si>
@@ -2046,6 +2046,36 @@
   </si>
   <si>
     <t>Linke and Roth 1990 discuss miniturization</t>
+  </si>
+  <si>
+    <t>Skorinov et al 2009</t>
+  </si>
+  <si>
+    <t>Denoel et al 2009 Biological Conservation</t>
+  </si>
+  <si>
+    <t>Wu et al ZooTaxa 2010</t>
+  </si>
+  <si>
+    <t>Fuentes et al 2011 Bol Asoc Herpetol Esp</t>
+  </si>
+  <si>
+    <t>Ceacero et al 2010</t>
+  </si>
+  <si>
+    <t>Gelder 72</t>
+  </si>
+  <si>
+    <t>Voesenek et al 1987 Some autoecological data on the Urodeles of Sardinia</t>
+  </si>
+  <si>
+    <t>Ferguson 1995</t>
+  </si>
+  <si>
+    <t>Boardman reports about half of verts are neotenous</t>
+  </si>
+  <si>
+    <t>Bonett et al 2014 has both listed</t>
   </si>
 </sst>
 </file>
@@ -2362,8 +2392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D560"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C356" sqref="C356"/>
+    <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
+      <selection activeCell="D376" sqref="D376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3169,8 +3199,10 @@
         <v>114</v>
       </c>
       <c r="C66">
-        <f>0+(0)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -4113,7 +4145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>18</v>
       </c>
@@ -4124,7 +4156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>101</v>
       </c>
@@ -4132,11 +4164,13 @@
         <v>221</v>
       </c>
       <c r="C146">
-        <f>0+(0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D146" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>101</v>
       </c>
@@ -4147,7 +4181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>101</v>
       </c>
@@ -4159,7 +4193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>101</v>
       </c>
@@ -4170,7 +4204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>113</v>
       </c>
@@ -4182,7 +4216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>113</v>
       </c>
@@ -4194,7 +4228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>113</v>
       </c>
@@ -4206,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>113</v>
       </c>
@@ -4218,7 +4252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>113</v>
       </c>
@@ -4230,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>113</v>
       </c>
@@ -4242,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>113</v>
       </c>
@@ -4254,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>113</v>
       </c>
@@ -4266,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>113</v>
       </c>
@@ -4278,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>113</v>
       </c>
@@ -4290,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>113</v>
       </c>
@@ -4747,8 +4781,10 @@
         <v>274</v>
       </c>
       <c r="C197">
-        <f>0+(0)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D197" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -4810,6 +4846,9 @@
         <f>1+(0)</f>
         <v>1</v>
       </c>
+      <c r="D202" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
@@ -4885,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>287</v>
       </c>
@@ -4897,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>287</v>
       </c>
@@ -4909,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>290</v>
       </c>
@@ -4921,7 +4960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>290</v>
       </c>
@@ -4933,7 +4972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>290</v>
       </c>
@@ -4945,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>290</v>
       </c>
@@ -4957,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>290</v>
       </c>
@@ -4969,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>290</v>
       </c>
@@ -4981,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>290</v>
       </c>
@@ -4993,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>290</v>
       </c>
@@ -5005,7 +5044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>290</v>
       </c>
@@ -5017,7 +5056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>299</v>
       </c>
@@ -5027,8 +5066,11 @@
       <c r="C220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D220" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>299</v>
       </c>
@@ -5040,7 +5082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>12</v>
       </c>
@@ -5051,8 +5093,11 @@
         <f>1+(0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D222" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>12</v>
       </c>
@@ -5064,7 +5109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>12</v>
       </c>
@@ -5072,8 +5117,10 @@
         <v>304</v>
       </c>
       <c r="C224">
-        <f>0+(0)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D224" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -5111,8 +5158,10 @@
         <v>308</v>
       </c>
       <c r="C227">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D227" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -5210,6 +5259,9 @@
         <f>1+(0)</f>
         <v>1</v>
       </c>
+      <c r="D235" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
@@ -5243,8 +5295,10 @@
         <v>321</v>
       </c>
       <c r="C238">
-        <f>0+(0)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D238" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -5255,8 +5309,10 @@
         <v>322</v>
       </c>
       <c r="C239">
-        <f>0+(0)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D239" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -6891,8 +6947,10 @@
         <v>465</v>
       </c>
       <c r="C375">
-        <f>2+(0)</f>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D375" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">

--- a/neoteny/neoteny.xlsx
+++ b/neoteny/neoteny.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="37780" yWindow="1900" windowWidth="10000" windowHeight="15220" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="2140" windowWidth="26660" windowHeight="25060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="718">
   <si>
     <t>species</t>
   </si>
@@ -2076,6 +2076,111 @@
   </si>
   <si>
     <t>Bonett et al 2014 has both listed</t>
+  </si>
+  <si>
+    <t>Mester Cozma and Puky in NorthWestern Jouranl of Zoology 9 (2013)</t>
+  </si>
+  <si>
+    <t>Kaya et al 2008</t>
+  </si>
+  <si>
+    <t>Sprules 1974 "The adaptive significance of paedogenesis" Can J Zool 52 393-400 listed ordinarium as facultative</t>
+  </si>
+  <si>
+    <t>Sprules 1974 "The adaptive significance of paedogenesis" Can J Zool 52 393-400 listed dumerilli as obligate</t>
+  </si>
+  <si>
+    <t>Sprules 1974 "The adaptive significance of paedogenesis" Can J Zool 52 393-400 listed mexicanum as obligate</t>
+  </si>
+  <si>
+    <t>Sprules 1974 "The adaptive significance of paedogenesis" Can J Zool 52 393-400 listed talpoideum as facultative</t>
+  </si>
+  <si>
+    <t>Sprules 1974 "The adaptive significance of paedogenesis" Can J Zool 52 393-400 listed gracile as facultative</t>
+  </si>
+  <si>
+    <t>lermaense</t>
+  </si>
+  <si>
+    <t>Sprules 1974 "The adaptive significance of paedogenesis" Can J Zool 52 393-400 listed lermaensis as obligate</t>
+  </si>
+  <si>
+    <t>velasci</t>
+  </si>
+  <si>
+    <t>Sprules 1974 "The adaptive significance of paedogenesis" Can J Zool 52 393-400 listed lacustris as obligate; velasci is the proper name for lacustris</t>
+  </si>
+  <si>
+    <t>rosaceum</t>
+  </si>
+  <si>
+    <t>Sprules 1974 "The adaptive significance of paedogenesis" Can J Zool 52 393-400 listed rosaceum as not being paedomorphic</t>
+  </si>
+  <si>
+    <t>Sprules 1974 "The adaptive significance of paedogenesis" Can J Zool 52 393-400 listed macrodactylum as not being paedomorphic</t>
+  </si>
+  <si>
+    <t>Tarkhnishvili &amp; Serbinova 1993, 1997 and Sequeira et al 2003</t>
+  </si>
+  <si>
+    <t>particularly short larval period; make it to metamorphosis relying solely on the yolk sac acccording to Kakegawa et al 1989 and Vassilieva et al 2015</t>
+  </si>
+  <si>
+    <t>Does not retain gills, but does seem to have accelerated development.</t>
+  </si>
+  <si>
+    <t>delayed metamorphosis according to Jomann et al 2005</t>
+  </si>
+  <si>
+    <t>Bonett et al 2014 lists it as both</t>
+  </si>
+  <si>
+    <t>Bonett et al 2014</t>
+  </si>
+  <si>
+    <t>Sparreboom "Salamanders of the Old World" describes a propensity for neoteny and partial gills retained into adulthood</t>
+  </si>
+  <si>
+    <t>Sparreboom "Salamanders of the Old World" describes a tendency towards neoteny and remnant gills or gill slits</t>
+  </si>
+  <si>
+    <t>flavipiperatum</t>
+  </si>
+  <si>
+    <t>EOL describes known neoteny, but no known neotenic populations</t>
+  </si>
+  <si>
+    <t>taylori</t>
+  </si>
+  <si>
+    <t>EOL</t>
+  </si>
+  <si>
+    <t>amblycephalum</t>
+  </si>
+  <si>
+    <t>EOL descrbes both neotenic and metamorphosing populations</t>
+  </si>
+  <si>
+    <t>taibaiensis</t>
+  </si>
+  <si>
+    <t>No known neotenics</t>
+  </si>
+  <si>
+    <t>no mention of neotenics in detailed study of skull ontogeny (Vassilieva et al 2013)</t>
+  </si>
+  <si>
+    <t>Only blind cave salamander that metamorphoses</t>
+  </si>
+  <si>
+    <t>organi</t>
+  </si>
+  <si>
+    <t>Wake and Hanken 1996</t>
+  </si>
+  <si>
+    <t>Wake and Hanken 1996 + Bonett et al 2014</t>
   </si>
 </sst>
 </file>
@@ -2390,10 +2495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D560"/>
+  <dimension ref="A1:D568"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
-      <selection activeCell="D376" sqref="D376"/>
+      <selection activeCell="I369" sqref="I369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2658,7 +2763,6 @@
         <v>37</v>
       </c>
       <c r="C22">
-        <f>0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3181,14 +3285,13 @@
         <v>113</v>
       </c>
       <c r="B65" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="C65">
-        <f>1+(0)</f>
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>660</v>
+        <v>710</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -3196,13 +3299,13 @@
         <v>113</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>707</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>681</v>
+        <v>708</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -3210,54 +3313,62 @@
         <v>113</v>
       </c>
       <c r="B67" t="s">
-        <v>115</v>
+        <v>705</v>
       </c>
       <c r="C67">
-        <f>0+(0)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>659</v>
       </c>
       <c r="C68">
-        <f>2+(0)</f>
-        <v>2</v>
+        <f>1+(0)</f>
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B69" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C70">
-        <f>2+(0)</f>
-        <v>2</v>
+        <f>0+(0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C71">
         <f>2+(0)</f>
@@ -3266,22 +3377,21 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B72" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C72">
-        <f>2+(0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B73" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C73">
         <f>2+(0)</f>
@@ -3290,57 +3400,60 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B74" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C74">
+        <f>2+(0)</f>
         <v>2</v>
-      </c>
-      <c r="D74" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B75" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C75">
+        <f>2+(0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B76" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C76">
+        <f>2+(0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B77" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C77">
         <v>2</v>
       </c>
+      <c r="D77" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B78" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -3348,414 +3461,421 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>129</v>
+      </c>
+      <c r="B79" t="s">
+        <v>131</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>132</v>
+      </c>
+      <c r="B80" t="s">
+        <v>133</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>132</v>
+      </c>
+      <c r="B81" t="s">
+        <v>134</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>135</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B82" t="s">
         <v>136</v>
       </c>
-      <c r="C79">
+      <c r="C82">
         <f>2+(0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>135</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B83" t="s">
         <v>137</v>
       </c>
-      <c r="C80">
+      <c r="C83">
         <f>2+(0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>138</v>
-      </c>
-      <c r="B81" t="s">
-        <v>139</v>
-      </c>
-      <c r="C81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>140</v>
-      </c>
-      <c r="B82" t="s">
-        <v>141</v>
-      </c>
-      <c r="C82">
-        <v>2</v>
-      </c>
-      <c r="D82" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>142</v>
-      </c>
-      <c r="B83" t="s">
-        <v>143</v>
-      </c>
-      <c r="C83">
-        <v>2</v>
-      </c>
-      <c r="D83" t="s">
-        <v>666</v>
-      </c>
-    </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B84" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C84">
-        <f t="shared" ref="C84:C87" si="3">0+(0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B85" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C85">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B86" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C86">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B87" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C87">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C87:C90" si="3">0+(0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>146</v>
+      </c>
+      <c r="B88" t="s">
+        <v>147</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>148</v>
+      </c>
+      <c r="B89" t="s">
+        <v>149</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>150</v>
+      </c>
+      <c r="B90" t="s">
+        <v>151</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>152</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B91" t="s">
         <v>153</v>
       </c>
-      <c r="C88">
+      <c r="C91">
         <f>1+(0)</f>
         <v>1</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D91" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>154</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B92" t="s">
         <v>155</v>
       </c>
-      <c r="C89">
+      <c r="C92">
         <f>0+(0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>156</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B93" t="s">
         <v>157</v>
       </c>
-      <c r="C90">
+      <c r="C93">
         <f>0+(0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>158</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B94" t="s">
         <v>159</v>
       </c>
-      <c r="C91">
+      <c r="C94">
         <f>2+(0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>80</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B95" t="s">
         <v>160</v>
       </c>
-      <c r="C92">
+      <c r="C95">
         <f>2+(0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>80</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B96" t="s">
         <v>161</v>
       </c>
-      <c r="C93">
+      <c r="C96">
         <f>2+(0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>162</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B97" t="s">
         <v>161</v>
       </c>
-      <c r="C94">
-        <f t="shared" ref="C94:C112" si="4">0+(0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="C97">
+        <f t="shared" ref="C97:C116" si="4">0+(0)</f>
+        <v>0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>162</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B98" t="s">
         <v>163</v>
       </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>164</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B99" t="s">
         <v>165</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>166</v>
-      </c>
-      <c r="B97" t="s">
-        <v>167</v>
-      </c>
-      <c r="C97">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>168</v>
-      </c>
-      <c r="B98" t="s">
-        <v>169</v>
-      </c>
-      <c r="C98">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>170</v>
-      </c>
-      <c r="B99" t="s">
-        <v>171</v>
       </c>
       <c r="C99">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B100" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C100">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B101" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C101">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D101" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B102" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C102">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B103" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C103">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B104" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>174</v>
       </c>
       <c r="B105" t="s">
-        <v>178</v>
+        <v>711</v>
       </c>
       <c r="C105">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="D105" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>174</v>
       </c>
       <c r="B106" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C106">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B107" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C107">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B108" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C108">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D108" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B109" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C109">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B110" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C110">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>180</v>
       </c>
       <c r="B111" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C111">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>180</v>
       </c>
       <c r="B112" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C112">
         <f t="shared" si="4"/>
@@ -3764,51 +3884,49 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B113" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C113">
-        <v>1</v>
-      </c>
-      <c r="D113" t="s">
-        <v>661</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B114" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C114">
-        <f t="shared" ref="C114:C141" si="5">0+(0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B115" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B116" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3817,11 +3935,13 @@
         <v>188</v>
       </c>
       <c r="B117" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C117">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -3829,10 +3949,10 @@
         <v>188</v>
       </c>
       <c r="B118" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C118">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="C118:C145" si="5">0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3841,7 +3961,7 @@
         <v>188</v>
       </c>
       <c r="B119" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C119">
         <f t="shared" si="5"/>
@@ -3853,7 +3973,7 @@
         <v>188</v>
       </c>
       <c r="B120" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C120">
         <f t="shared" si="5"/>
@@ -3865,7 +3985,7 @@
         <v>188</v>
       </c>
       <c r="B121" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C121">
         <f t="shared" si="5"/>
@@ -3877,11 +3997,14 @@
         <v>188</v>
       </c>
       <c r="B122" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C122">
         <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+      <c r="D122" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -3889,7 +4012,7 @@
         <v>188</v>
       </c>
       <c r="B123" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C123">
         <f t="shared" si="5"/>
@@ -3901,7 +4024,7 @@
         <v>188</v>
       </c>
       <c r="B124" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C124">
         <f t="shared" si="5"/>
@@ -3913,7 +4036,7 @@
         <v>188</v>
       </c>
       <c r="B125" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C125">
         <f t="shared" si="5"/>
@@ -3925,7 +4048,7 @@
         <v>188</v>
       </c>
       <c r="B126" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C126">
         <f t="shared" si="5"/>
@@ -3937,7 +4060,7 @@
         <v>188</v>
       </c>
       <c r="B127" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C127">
         <f t="shared" si="5"/>
@@ -3949,7 +4072,7 @@
         <v>188</v>
       </c>
       <c r="B128" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C128">
         <f t="shared" si="5"/>
@@ -3961,7 +4084,7 @@
         <v>188</v>
       </c>
       <c r="B129" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C129">
         <f t="shared" si="5"/>
@@ -3973,7 +4096,7 @@
         <v>188</v>
       </c>
       <c r="B130" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C130">
         <f t="shared" si="5"/>
@@ -3985,7 +4108,7 @@
         <v>188</v>
       </c>
       <c r="B131" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C131">
         <f t="shared" si="5"/>
@@ -3997,7 +4120,7 @@
         <v>188</v>
       </c>
       <c r="B132" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C132">
         <f t="shared" si="5"/>
@@ -4009,7 +4132,7 @@
         <v>188</v>
       </c>
       <c r="B133" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C133">
         <f t="shared" si="5"/>
@@ -4021,7 +4144,7 @@
         <v>188</v>
       </c>
       <c r="B134" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C134">
         <f t="shared" si="5"/>
@@ -4033,7 +4156,7 @@
         <v>188</v>
       </c>
       <c r="B135" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C135">
         <f t="shared" si="5"/>
@@ -4045,7 +4168,7 @@
         <v>188</v>
       </c>
       <c r="B136" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C136">
         <f t="shared" si="5"/>
@@ -4057,7 +4180,7 @@
         <v>188</v>
       </c>
       <c r="B137" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C137">
         <f t="shared" si="5"/>
@@ -4069,7 +4192,7 @@
         <v>188</v>
       </c>
       <c r="B138" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C138">
         <f t="shared" si="5"/>
@@ -4081,7 +4204,7 @@
         <v>188</v>
       </c>
       <c r="B139" t="s">
-        <v>22</v>
+        <v>211</v>
       </c>
       <c r="C139">
         <f t="shared" si="5"/>
@@ -4093,7 +4216,7 @@
         <v>188</v>
       </c>
       <c r="B140" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C140">
         <f t="shared" si="5"/>
@@ -4105,7 +4228,7 @@
         <v>188</v>
       </c>
       <c r="B141" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C141">
         <f t="shared" si="5"/>
@@ -4114,142 +4237,142 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="B142" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="B143" t="s">
-        <v>218</v>
+        <v>22</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="B144" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="B145" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C146">
-        <v>1</v>
-      </c>
-      <c r="D146" t="s">
-        <v>680</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="B147" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>18</v>
+      </c>
+      <c r="B148" t="s">
+        <v>219</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>18</v>
+      </c>
+      <c r="B149" t="s">
+        <v>220</v>
+      </c>
+      <c r="C149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>101</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B150" t="s">
+        <v>221</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>101</v>
+      </c>
+      <c r="B151" t="s">
+        <v>222</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>101</v>
+      </c>
+      <c r="B152" t="s">
         <v>139</v>
       </c>
-      <c r="C148">
+      <c r="C152">
         <f>2+(0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>101</v>
-      </c>
-      <c r="B149" t="s">
-        <v>223</v>
-      </c>
-      <c r="C149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>113</v>
-      </c>
-      <c r="B150" t="s">
-        <v>224</v>
-      </c>
-      <c r="C150">
-        <f>1+(0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>113</v>
-      </c>
-      <c r="B151" t="s">
-        <v>225</v>
-      </c>
-      <c r="C151">
-        <f>1+(0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>113</v>
-      </c>
-      <c r="B152" t="s">
-        <v>226</v>
-      </c>
-      <c r="C152">
-        <f t="shared" ref="C152:C161" si="6">0+(0)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B153" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C153">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -4257,11 +4380,13 @@
         <v>113</v>
       </c>
       <c r="B154" t="s">
-        <v>228</v>
+        <v>694</v>
       </c>
       <c r="C154">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D154" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -4269,11 +4394,13 @@
         <v>113</v>
       </c>
       <c r="B155" t="s">
-        <v>229</v>
+        <v>692</v>
       </c>
       <c r="C155">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D155" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -4281,11 +4408,13 @@
         <v>113</v>
       </c>
       <c r="B156" t="s">
-        <v>230</v>
+        <v>690</v>
       </c>
       <c r="C156">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D156" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -4293,11 +4422,14 @@
         <v>113</v>
       </c>
       <c r="B157" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C157">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>1+(0)</f>
+        <v>1</v>
+      </c>
+      <c r="D157" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -4305,11 +4437,14 @@
         <v>113</v>
       </c>
       <c r="B158" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C158">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>1+(0)</f>
+        <v>1</v>
+      </c>
+      <c r="D158" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -4317,10 +4452,10 @@
         <v>113</v>
       </c>
       <c r="B159" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C159">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="C159:C168" si="6">0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4329,7 +4464,7 @@
         <v>113</v>
       </c>
       <c r="B160" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C160">
         <f t="shared" si="6"/>
@@ -4341,7 +4476,7 @@
         <v>113</v>
       </c>
       <c r="B161" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C161">
         <f t="shared" si="6"/>
@@ -4353,14 +4488,11 @@
         <v>113</v>
       </c>
       <c r="B162" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C162">
-        <f>1+(0)</f>
-        <v>1</v>
-      </c>
-      <c r="D162" t="s">
-        <v>654</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -4368,11 +4500,11 @@
         <v>113</v>
       </c>
       <c r="B163" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C163">
-        <f>2+(0)</f>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -4380,11 +4512,11 @@
         <v>113</v>
       </c>
       <c r="B164" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C164">
-        <f>2+(0)</f>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -4392,11 +4524,11 @@
         <v>113</v>
       </c>
       <c r="B165" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C165">
-        <f>2+(0)</f>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -4404,117 +4536,132 @@
         <v>113</v>
       </c>
       <c r="B166" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C166">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>113</v>
+      </c>
+      <c r="B167" t="s">
+        <v>234</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D167" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>113</v>
+      </c>
+      <c r="B168" t="s">
+        <v>235</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>113</v>
+      </c>
+      <c r="B169" t="s">
+        <v>236</v>
+      </c>
+      <c r="C169">
+        <f>1+(0)</f>
+        <v>1</v>
+      </c>
+      <c r="D169" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>113</v>
+      </c>
+      <c r="B170" t="s">
+        <v>237</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>113</v>
+      </c>
+      <c r="B171" t="s">
+        <v>238</v>
+      </c>
+      <c r="C171">
         <f>2+(0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>241</v>
-      </c>
-      <c r="B167" t="s">
-        <v>242</v>
-      </c>
-      <c r="C167">
-        <f t="shared" ref="C167:C183" si="7">0+(0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>241</v>
-      </c>
-      <c r="B168" t="s">
-        <v>243</v>
-      </c>
-      <c r="C168">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>244</v>
-      </c>
-      <c r="B169" t="s">
-        <v>245</v>
-      </c>
-      <c r="C169">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>65</v>
-      </c>
-      <c r="B170" t="s">
-        <v>246</v>
-      </c>
-      <c r="C170">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>63</v>
-      </c>
-      <c r="B171" t="s">
-        <v>247</v>
-      </c>
-      <c r="C171">
-        <f t="shared" si="7"/>
-        <v>0</v>
+      <c r="D171" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="B172" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C172">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>2+(0)</f>
+        <v>2</v>
+      </c>
+      <c r="D172" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="B173" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <f>2+(0)</f>
+        <v>2</v>
       </c>
       <c r="D173" t="s">
-        <v>670</v>
+        <v>708</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="B174" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C174">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="C174:C190" si="7">0+(0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="B175" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C175">
         <f t="shared" si="7"/>
@@ -4523,214 +4670,219 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>63</v>
+        <v>244</v>
       </c>
       <c r="B176" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C176">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>253</v>
+        <v>65</v>
       </c>
       <c r="B177" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C177">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D177" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>253</v>
+        <v>63</v>
       </c>
       <c r="B178" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C178">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>253</v>
+        <v>63</v>
       </c>
       <c r="B179" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C179">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>253</v>
+        <v>63</v>
       </c>
       <c r="B180" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C180">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D180" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>253</v>
+        <v>63</v>
       </c>
       <c r="B181" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C181">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>253</v>
+        <v>63</v>
       </c>
       <c r="B182" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C182">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>253</v>
+        <v>63</v>
       </c>
       <c r="B183" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C183">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
+        <v>253</v>
+      </c>
+      <c r="B184" t="s">
+        <v>254</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>253</v>
+      </c>
+      <c r="B185" t="s">
+        <v>255</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>253</v>
+      </c>
+      <c r="B186" t="s">
+        <v>256</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>253</v>
+      </c>
+      <c r="B187" t="s">
+        <v>257</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>253</v>
+      </c>
+      <c r="B188" t="s">
+        <v>258</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>253</v>
+      </c>
+      <c r="B189" t="s">
+        <v>259</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>253</v>
+      </c>
+      <c r="B190" t="s">
+        <v>260</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
         <v>61</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B191" t="s">
         <v>261</v>
       </c>
-      <c r="C184">
+      <c r="C191">
         <f>1+(0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
         <v>61</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B192" t="s">
         <v>214</v>
       </c>
-      <c r="C185">
-        <f t="shared" ref="C185:C195" si="8">0+(0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>61</v>
-      </c>
-      <c r="B186" t="s">
-        <v>262</v>
-      </c>
-      <c r="C186">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>263</v>
-      </c>
-      <c r="B187" t="s">
-        <v>264</v>
-      </c>
-      <c r="C187">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>263</v>
-      </c>
-      <c r="B188" t="s">
-        <v>240</v>
-      </c>
-      <c r="C188">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>265</v>
-      </c>
-      <c r="B189" t="s">
-        <v>266</v>
-      </c>
-      <c r="C189">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>265</v>
-      </c>
-      <c r="B190" t="s">
-        <v>267</v>
-      </c>
-      <c r="C190">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>265</v>
-      </c>
-      <c r="B191" t="s">
-        <v>268</v>
-      </c>
-      <c r="C191">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>265</v>
-      </c>
-      <c r="B192" t="s">
-        <v>269</v>
-      </c>
       <c r="C192">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="C192:C202" si="8">0+(0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>265</v>
+        <v>61</v>
       </c>
       <c r="B193" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C193">
         <f t="shared" si="8"/>
@@ -4739,10 +4891,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B194" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C194">
         <f t="shared" si="8"/>
@@ -4751,10 +4903,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>3</v>
+        <v>263</v>
       </c>
       <c r="B195" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="C195">
         <f t="shared" si="8"/>
@@ -4763,272 +4915,272 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
+        <v>265</v>
+      </c>
+      <c r="B196" t="s">
+        <v>266</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>265</v>
+      </c>
+      <c r="B197" t="s">
+        <v>267</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>265</v>
+      </c>
+      <c r="B198" t="s">
+        <v>268</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>265</v>
+      </c>
+      <c r="B199" t="s">
+        <v>269</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>265</v>
+      </c>
+      <c r="B200" t="s">
+        <v>270</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>265</v>
+      </c>
+      <c r="B201" t="s">
+        <v>271</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
         <v>3</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B202" t="s">
+        <v>272</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>3</v>
+      </c>
+      <c r="B203" t="s">
         <v>273</v>
       </c>
-      <c r="C196">
+      <c r="C203">
         <f>1+(0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
         <v>3</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B204" t="s">
         <v>274</v>
       </c>
-      <c r="C197">
+      <c r="C204">
         <v>1</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D204" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
         <v>77</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B205" t="s">
         <v>275</v>
       </c>
-      <c r="C198">
+      <c r="C205">
         <f>0+(0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
         <v>77</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B206" t="s">
         <v>276</v>
       </c>
-      <c r="C199">
+      <c r="C206">
         <f>1+(0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
         <v>77</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B207" t="s">
         <v>277</v>
       </c>
-      <c r="C200">
+      <c r="C207">
         <f>0+(0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
         <v>43</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B208" t="s">
         <v>278</v>
       </c>
-      <c r="C201">
+      <c r="C208">
         <f>1+(0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
         <v>279</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B209" t="s">
         <v>657</v>
       </c>
-      <c r="C202">
+      <c r="C209">
         <f>1+(0)</f>
         <v>1</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D209" t="s">
         <v>675</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>279</v>
-      </c>
-      <c r="B203" t="s">
-        <v>280</v>
-      </c>
-      <c r="C203">
-        <f>0+(0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>279</v>
-      </c>
-      <c r="B204" t="s">
-        <v>281</v>
-      </c>
-      <c r="C204">
-        <v>1</v>
-      </c>
-      <c r="D204" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>279</v>
-      </c>
-      <c r="B205" t="s">
-        <v>282</v>
-      </c>
-      <c r="C205">
-        <f t="shared" ref="C205:C211" si="9">0+(0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>279</v>
-      </c>
-      <c r="B206" t="s">
-        <v>283</v>
-      </c>
-      <c r="C206">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>279</v>
-      </c>
-      <c r="B207" t="s">
-        <v>284</v>
-      </c>
-      <c r="C207">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>285</v>
-      </c>
-      <c r="B208" t="s">
-        <v>286</v>
-      </c>
-      <c r="C208">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>287</v>
-      </c>
-      <c r="B209" t="s">
-        <v>288</v>
-      </c>
-      <c r="C209">
-        <f t="shared" si="9"/>
-        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B210" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C210">
-        <f t="shared" si="9"/>
+        <f>0+(0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B211" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C211">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D211" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B212" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C212">
-        <f>1+(0)</f>
-        <v>1</v>
+        <f t="shared" ref="C212:C218" si="9">0+(0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B213" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C213">
-        <f t="shared" ref="C213:C219" si="10">0+(0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B214" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C214">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B215" t="s">
-        <v>208</v>
+        <v>286</v>
       </c>
       <c r="C215">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B216" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C216">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B217" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C217">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5037,10 +5189,10 @@
         <v>290</v>
       </c>
       <c r="B218" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C218">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5049,858 +5201,860 @@
         <v>290</v>
       </c>
       <c r="B219" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C219">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>1+(0)</f>
+        <v>1</v>
+      </c>
+      <c r="D219" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B220" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C220">
-        <v>1</v>
-      </c>
-      <c r="D220" t="s">
-        <v>679</v>
+        <f t="shared" ref="C220:C226" si="10">0+(0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B221" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C221">
-        <f>0+(0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
+        <v>290</v>
+      </c>
+      <c r="B222" t="s">
+        <v>208</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>290</v>
+      </c>
+      <c r="B223" t="s">
+        <v>295</v>
+      </c>
+      <c r="C223">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>290</v>
+      </c>
+      <c r="B224" t="s">
+        <v>296</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>290</v>
+      </c>
+      <c r="B225" t="s">
+        <v>297</v>
+      </c>
+      <c r="C225">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>290</v>
+      </c>
+      <c r="B226" t="s">
+        <v>298</v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>299</v>
+      </c>
+      <c r="B227" t="s">
+        <v>300</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>299</v>
+      </c>
+      <c r="B228" t="s">
+        <v>301</v>
+      </c>
+      <c r="C228">
+        <f>0+(0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
         <v>12</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B229" t="s">
         <v>302</v>
       </c>
-      <c r="C222">
+      <c r="C229">
         <f>1+(0)</f>
         <v>1</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D229" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
         <v>12</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B230" t="s">
         <v>303</v>
       </c>
-      <c r="C223">
+      <c r="C230">
         <f>1+(0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
         <v>12</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B231" t="s">
         <v>304</v>
       </c>
-      <c r="C224">
+      <c r="C231">
         <v>1</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D231" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
         <v>12</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B232" t="s">
         <v>305</v>
       </c>
-      <c r="C225">
+      <c r="C232">
         <f>1+(0)</f>
         <v>1</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D232" t="s">
         <v>671</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>12</v>
-      </c>
-      <c r="B226" t="s">
-        <v>306</v>
-      </c>
-      <c r="C226">
-        <f t="shared" ref="C226:C232" si="11">0+(0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>307</v>
-      </c>
-      <c r="B227" t="s">
-        <v>308</v>
-      </c>
-      <c r="C227">
-        <v>1</v>
-      </c>
-      <c r="D227" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>307</v>
-      </c>
-      <c r="B228" t="s">
-        <v>309</v>
-      </c>
-      <c r="C228">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>310</v>
-      </c>
-      <c r="B229" t="s">
-        <v>311</v>
-      </c>
-      <c r="C229">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>310</v>
-      </c>
-      <c r="B230" t="s">
-        <v>312</v>
-      </c>
-      <c r="C230">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>310</v>
-      </c>
-      <c r="B231" t="s">
-        <v>313</v>
-      </c>
-      <c r="C231">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>310</v>
-      </c>
-      <c r="B232" t="s">
-        <v>314</v>
-      </c>
-      <c r="C232">
-        <f t="shared" si="11"/>
-        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
+        <v>12</v>
+      </c>
+      <c r="B233" t="s">
+        <v>306</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>307</v>
+      </c>
+      <c r="B234" t="s">
+        <v>308</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>307</v>
+      </c>
+      <c r="B235" t="s">
+        <v>309</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>310</v>
+      </c>
+      <c r="B236" t="s">
+        <v>311</v>
+      </c>
+      <c r="C236">
+        <f t="shared" ref="C236:C239" si="11">0+(0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>310</v>
+      </c>
+      <c r="B237" t="s">
+        <v>312</v>
+      </c>
+      <c r="C237">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>310</v>
+      </c>
+      <c r="B238" t="s">
+        <v>313</v>
+      </c>
+      <c r="C238">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>310</v>
+      </c>
+      <c r="B239" t="s">
+        <v>314</v>
+      </c>
+      <c r="C239">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
         <v>315</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B240" t="s">
         <v>316</v>
       </c>
-      <c r="C233">
+      <c r="C240">
         <f>1+(0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
         <v>315</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B241" t="s">
         <v>317</v>
       </c>
-      <c r="C234">
+      <c r="C241">
         <f>0+(0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
         <v>10</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B242" t="s">
         <v>318</v>
       </c>
-      <c r="C235">
+      <c r="C242">
         <f>1+(0)</f>
         <v>1</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D242" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
         <v>10</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B243" t="s">
         <v>319</v>
       </c>
-      <c r="C236">
+      <c r="C243">
         <f>0+(0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
         <v>10</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B244" t="s">
         <v>320</v>
       </c>
-      <c r="C237">
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>10</v>
+      </c>
+      <c r="B245" t="s">
+        <v>321</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>10</v>
+      </c>
+      <c r="B246" t="s">
+        <v>322</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>10</v>
+      </c>
+      <c r="B247" t="s">
+        <v>323</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>10</v>
+      </c>
+      <c r="B248" t="s">
+        <v>324</v>
+      </c>
+      <c r="C248">
         <f>0+(0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>10</v>
-      </c>
-      <c r="B238" t="s">
-        <v>321</v>
-      </c>
-      <c r="C238">
-        <v>1</v>
-      </c>
-      <c r="D238" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>10</v>
-      </c>
-      <c r="B239" t="s">
-        <v>322</v>
-      </c>
-      <c r="C239">
-        <v>1</v>
-      </c>
-      <c r="D239" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>10</v>
-      </c>
-      <c r="B240" t="s">
-        <v>323</v>
-      </c>
-      <c r="C240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>10</v>
-      </c>
-      <c r="B241" t="s">
-        <v>324</v>
-      </c>
-      <c r="C241">
-        <f>0+(0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
         <v>325</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B249" t="s">
         <v>326</v>
       </c>
-      <c r="C242">
-        <f t="shared" ref="C242:C247" si="12">2+(0)</f>
+      <c r="C249">
+        <f t="shared" ref="C249:C254" si="12">2+(0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
         <v>50</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B250" t="s">
         <v>327</v>
       </c>
-      <c r="C243">
+      <c r="C250">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
         <v>50</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B251" t="s">
         <v>328</v>
       </c>
-      <c r="C244">
+      <c r="C251">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
         <v>50</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B252" t="s">
         <v>329</v>
       </c>
-      <c r="C245">
+      <c r="C252">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
         <v>50</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B253" t="s">
         <v>330</v>
       </c>
-      <c r="C246">
+      <c r="C253">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
         <v>50</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B254" t="s">
         <v>331</v>
       </c>
-      <c r="C247">
+      <c r="C254">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
         <v>332</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B255" t="s">
         <v>333</v>
       </c>
-      <c r="C248">
+      <c r="C255">
         <f>0+(0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
         <v>332</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B256" t="s">
         <v>334</v>
       </c>
-      <c r="C249">
+      <c r="C256">
         <f>0+(0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
         <v>332</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B257" t="s">
         <v>335</v>
       </c>
-      <c r="C250">
+      <c r="C257">
         <f>0+(0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
         <v>332</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B258" t="s">
         <v>336</v>
       </c>
-      <c r="C251">
+      <c r="C258">
         <f>0+(0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
         <v>109</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B259" t="s">
         <v>337</v>
       </c>
-      <c r="C252">
+      <c r="C259">
         <f>2+(0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
         <v>109</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B260" t="s">
         <v>338</v>
       </c>
-      <c r="C253">
+      <c r="C260">
         <f>2+(0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
         <v>109</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B261" t="s">
         <v>339</v>
       </c>
-      <c r="C254">
+      <c r="C261">
         <f>2+(0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
         <v>340</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B262" t="s">
         <v>341</v>
       </c>
-      <c r="C255">
-        <f t="shared" ref="C255:C270" si="13">0+(0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
-        <v>342</v>
-      </c>
-      <c r="B256" t="s">
-        <v>343</v>
-      </c>
-      <c r="C256">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>342</v>
-      </c>
-      <c r="B257" t="s">
-        <v>344</v>
-      </c>
-      <c r="C257">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>342</v>
-      </c>
-      <c r="B258" t="s">
-        <v>300</v>
-      </c>
-      <c r="C258">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>342</v>
-      </c>
-      <c r="B259" t="s">
-        <v>345</v>
-      </c>
-      <c r="C259">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>342</v>
-      </c>
-      <c r="B260" t="s">
-        <v>346</v>
-      </c>
-      <c r="C260">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>342</v>
-      </c>
-      <c r="B261" t="s">
-        <v>303</v>
-      </c>
-      <c r="C261">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>342</v>
-      </c>
-      <c r="B262" t="s">
-        <v>347</v>
-      </c>
       <c r="C262">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>342</v>
       </c>
       <c r="B263" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C263">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>342</v>
       </c>
       <c r="B264" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C264">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>342</v>
       </c>
       <c r="B265" t="s">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="C265">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>342</v>
       </c>
       <c r="B266" t="s">
+        <v>345</v>
+      </c>
+      <c r="C266">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>342</v>
+      </c>
+      <c r="B267" t="s">
+        <v>346</v>
+      </c>
+      <c r="C267">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>342</v>
+      </c>
+      <c r="B268" t="s">
+        <v>303</v>
+      </c>
+      <c r="C268">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>342</v>
+      </c>
+      <c r="B269" t="s">
+        <v>347</v>
+      </c>
+      <c r="C269">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>342</v>
+      </c>
+      <c r="B270" t="s">
+        <v>348</v>
+      </c>
+      <c r="C270">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>342</v>
+      </c>
+      <c r="B271" t="s">
+        <v>349</v>
+      </c>
+      <c r="C271">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>342</v>
+      </c>
+      <c r="B272" t="s">
+        <v>350</v>
+      </c>
+      <c r="C272">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>342</v>
+      </c>
+      <c r="B273" t="s">
         <v>351</v>
       </c>
-      <c r="C266">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
+      <c r="C273">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
         <v>352</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B274" t="s">
         <v>353</v>
       </c>
-      <c r="C267">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
+      <c r="C274">
+        <v>-1</v>
+      </c>
+      <c r="D274" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
         <v>354</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B275" t="s">
         <v>355</v>
       </c>
-      <c r="C268">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
+      <c r="C275">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
         <v>354</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B276" t="s">
         <v>356</v>
       </c>
-      <c r="C269">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
+      <c r="C276">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
         <v>354</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B277" t="s">
         <v>357</v>
       </c>
-      <c r="C270">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
+      <c r="C277">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
         <v>354</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B278" t="s">
         <v>358</v>
       </c>
-      <c r="C271">
+      <c r="C278">
         <v>1</v>
       </c>
-      <c r="D271" t="s">
+      <c r="D278" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
         <v>354</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B279" t="s">
         <v>359</v>
       </c>
-      <c r="C272">
-        <f t="shared" ref="C272:C303" si="14">0+(0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
+      <c r="C279">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
         <v>354</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B280" t="s">
         <v>360</v>
       </c>
-      <c r="C273">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
+      <c r="C280">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
         <v>361</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B281" t="s">
         <v>362</v>
       </c>
-      <c r="C274">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
-        <v>363</v>
-      </c>
-      <c r="B275" t="s">
-        <v>364</v>
-      </c>
-      <c r="C275">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
-        <v>363</v>
-      </c>
-      <c r="B276" t="s">
-        <v>365</v>
-      </c>
-      <c r="C276">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
-        <v>363</v>
-      </c>
-      <c r="B277" t="s">
-        <v>319</v>
-      </c>
-      <c r="C277">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
-        <v>363</v>
-      </c>
-      <c r="B278" t="s">
-        <v>366</v>
-      </c>
-      <c r="C278">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
-        <v>363</v>
-      </c>
-      <c r="B279" t="s">
-        <v>355</v>
-      </c>
-      <c r="C279">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
-        <v>363</v>
-      </c>
-      <c r="B280" t="s">
-        <v>367</v>
-      </c>
-      <c r="C280">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
-        <v>363</v>
-      </c>
-      <c r="B281" t="s">
-        <v>368</v>
-      </c>
       <c r="C281">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+      <c r="D281" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>363</v>
       </c>
       <c r="B282" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C282">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+      <c r="D282" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>363</v>
       </c>
       <c r="B283" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C283">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ref="C283:C301" si="13">0+(0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>363</v>
       </c>
       <c r="B284" t="s">
-        <v>371</v>
+        <v>319</v>
       </c>
       <c r="C284">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>363</v>
       </c>
       <c r="B285" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C285">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>363</v>
       </c>
       <c r="B286" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="C286">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+      <c r="D286" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>363</v>
       </c>
       <c r="B287" t="s">
-        <v>374</v>
+        <v>715</v>
       </c>
       <c r="C287">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+      <c r="D287" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>363</v>
       </c>
       <c r="B288" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C288">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -5909,10 +6063,10 @@
         <v>363</v>
       </c>
       <c r="B289" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C289">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -5921,10 +6075,10 @@
         <v>363</v>
       </c>
       <c r="B290" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C290">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -5933,10 +6087,10 @@
         <v>363</v>
       </c>
       <c r="B291" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C291">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -5945,10 +6099,10 @@
         <v>363</v>
       </c>
       <c r="B292" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C292">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -5957,106 +6111,106 @@
         <v>363</v>
       </c>
       <c r="B293" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C293">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="B294" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C294">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="B295" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C295">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="B296" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C296">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="B297" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C297">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="B298" t="s">
-        <v>22</v>
+        <v>377</v>
       </c>
       <c r="C298">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="B299" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C299">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="B300" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C300">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="B301" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C301">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6065,11 +6219,10 @@
         <v>381</v>
       </c>
       <c r="B302" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C302">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -6077,11 +6230,10 @@
         <v>381</v>
       </c>
       <c r="B303" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C303">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
@@ -6089,11 +6241,10 @@
         <v>381</v>
       </c>
       <c r="B304" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C304">
-        <f t="shared" ref="C304:C335" si="15">0+(0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -6101,11 +6252,10 @@
         <v>381</v>
       </c>
       <c r="B305" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C305">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -6113,11 +6263,10 @@
         <v>381</v>
       </c>
       <c r="B306" t="s">
-        <v>393</v>
+        <v>22</v>
       </c>
       <c r="C306">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -6125,11 +6274,10 @@
         <v>381</v>
       </c>
       <c r="B307" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C307">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -6137,11 +6285,10 @@
         <v>381</v>
       </c>
       <c r="B308" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C308">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
@@ -6149,11 +6296,10 @@
         <v>381</v>
       </c>
       <c r="B309" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C309">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
@@ -6161,11 +6307,10 @@
         <v>381</v>
       </c>
       <c r="B310" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="C310">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
@@ -6173,11 +6318,10 @@
         <v>381</v>
       </c>
       <c r="B311" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C311">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
@@ -6185,11 +6329,10 @@
         <v>381</v>
       </c>
       <c r="B312" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C312">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
@@ -6197,11 +6340,10 @@
         <v>381</v>
       </c>
       <c r="B313" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C313">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
@@ -6209,11 +6351,10 @@
         <v>381</v>
       </c>
       <c r="B314" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C314">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
@@ -6221,11 +6362,10 @@
         <v>381</v>
       </c>
       <c r="B315" t="s">
-        <v>328</v>
+        <v>394</v>
       </c>
       <c r="C315">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
@@ -6233,11 +6373,10 @@
         <v>381</v>
       </c>
       <c r="B316" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C316">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
@@ -6245,11 +6384,10 @@
         <v>381</v>
       </c>
       <c r="B317" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C317">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
@@ -6257,11 +6395,10 @@
         <v>381</v>
       </c>
       <c r="B318" t="s">
-        <v>403</v>
+        <v>362</v>
       </c>
       <c r="C318">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
@@ -6269,11 +6406,10 @@
         <v>381</v>
       </c>
       <c r="B319" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C319">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
@@ -6281,11 +6417,10 @@
         <v>381</v>
       </c>
       <c r="B320" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C320">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
@@ -6293,11 +6428,10 @@
         <v>381</v>
       </c>
       <c r="B321" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C321">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
@@ -6305,11 +6439,10 @@
         <v>381</v>
       </c>
       <c r="B322" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C322">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
@@ -6317,11 +6450,10 @@
         <v>381</v>
       </c>
       <c r="B323" t="s">
-        <v>408</v>
+        <v>328</v>
       </c>
       <c r="C323">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
@@ -6329,11 +6461,10 @@
         <v>381</v>
       </c>
       <c r="B324" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C324">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
@@ -6341,11 +6472,10 @@
         <v>381</v>
       </c>
       <c r="B325" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C325">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
@@ -6353,11 +6483,10 @@
         <v>381</v>
       </c>
       <c r="B326" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C326">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
@@ -6365,11 +6494,10 @@
         <v>381</v>
       </c>
       <c r="B327" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C327">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
@@ -6377,11 +6505,10 @@
         <v>381</v>
       </c>
       <c r="B328" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C328">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -6389,11 +6516,10 @@
         <v>381</v>
       </c>
       <c r="B329" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C329">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -6401,11 +6527,10 @@
         <v>381</v>
       </c>
       <c r="B330" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C330">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -6413,11 +6538,10 @@
         <v>381</v>
       </c>
       <c r="B331" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C331">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
@@ -6425,11 +6549,10 @@
         <v>381</v>
       </c>
       <c r="B332" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C332">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
@@ -6437,11 +6560,10 @@
         <v>381</v>
       </c>
       <c r="B333" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C333">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
@@ -6449,11 +6571,10 @@
         <v>381</v>
       </c>
       <c r="B334" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C334">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
@@ -6461,11 +6582,10 @@
         <v>381</v>
       </c>
       <c r="B335" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C335">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
@@ -6473,11 +6593,10 @@
         <v>381</v>
       </c>
       <c r="B336" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C336">
-        <f t="shared" ref="C336:C352" si="16">0+(0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
@@ -6485,11 +6604,10 @@
         <v>381</v>
       </c>
       <c r="B337" t="s">
-        <v>301</v>
+        <v>414</v>
       </c>
       <c r="C337">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
@@ -6497,11 +6615,10 @@
         <v>381</v>
       </c>
       <c r="B338" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C338">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
@@ -6509,11 +6626,10 @@
         <v>381</v>
       </c>
       <c r="B339" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C339">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
@@ -6521,11 +6637,10 @@
         <v>381</v>
       </c>
       <c r="B340" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C340">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
@@ -6533,11 +6648,10 @@
         <v>381</v>
       </c>
       <c r="B341" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C341">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
@@ -6545,11 +6659,10 @@
         <v>381</v>
       </c>
       <c r="B342" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C342">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
@@ -6557,11 +6670,10 @@
         <v>381</v>
       </c>
       <c r="B343" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C343">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
@@ -6569,11 +6681,10 @@
         <v>381</v>
       </c>
       <c r="B344" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C344">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
@@ -6581,11 +6692,10 @@
         <v>381</v>
       </c>
       <c r="B345" t="s">
-        <v>429</v>
+        <v>301</v>
       </c>
       <c r="C345">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
@@ -6593,11 +6703,10 @@
         <v>381</v>
       </c>
       <c r="B346" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C346">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
@@ -6605,207 +6714,203 @@
         <v>381</v>
       </c>
       <c r="B347" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C347">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>432</v>
+        <v>381</v>
       </c>
       <c r="B348" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C348">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>434</v>
+        <v>381</v>
       </c>
       <c r="B349" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C349">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>436</v>
+        <v>381</v>
       </c>
       <c r="B350" t="s">
-        <v>301</v>
+        <v>426</v>
       </c>
       <c r="C350">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>436</v>
+        <v>381</v>
       </c>
       <c r="B351" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="C351">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>438</v>
+        <v>381</v>
       </c>
       <c r="B352" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="C352">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
+        <v>381</v>
+      </c>
+      <c r="B353" t="s">
+        <v>429</v>
+      </c>
+      <c r="C353">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>381</v>
+      </c>
+      <c r="B354" t="s">
+        <v>430</v>
+      </c>
+      <c r="C354">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>381</v>
+      </c>
+      <c r="B355" t="s">
+        <v>431</v>
+      </c>
+      <c r="C355">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>432</v>
+      </c>
+      <c r="B356" t="s">
+        <v>433</v>
+      </c>
+      <c r="C356">
+        <f t="shared" ref="C356:C360" si="14">0+(0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>434</v>
+      </c>
+      <c r="B357" t="s">
+        <v>435</v>
+      </c>
+      <c r="C357">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D357" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>436</v>
+      </c>
+      <c r="B358" t="s">
+        <v>301</v>
+      </c>
+      <c r="C358">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>436</v>
+      </c>
+      <c r="B359" t="s">
+        <v>437</v>
+      </c>
+      <c r="C359">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
         <v>438</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B360" t="s">
+        <v>439</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+      <c r="D360" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>438</v>
+      </c>
+      <c r="B361" t="s">
         <v>440</v>
       </c>
-      <c r="C353">
+      <c r="C361">
         <f>2+(0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A354" t="s">
+      <c r="D361" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
         <v>438</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B362" t="s">
         <v>441</v>
       </c>
-      <c r="C354">
+      <c r="C362">
         <f>1+(0)</f>
         <v>1</v>
       </c>
-      <c r="D354" t="s">
+      <c r="D362" t="s">
         <v>655</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A355" t="s">
-        <v>442</v>
-      </c>
-      <c r="B355" t="s">
-        <v>443</v>
-      </c>
-      <c r="C355">
-        <f>2+(0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A356" t="s">
-        <v>444</v>
-      </c>
-      <c r="B356" t="s">
-        <v>445</v>
-      </c>
-      <c r="C356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A357" t="s">
-        <v>444</v>
-      </c>
-      <c r="B357" t="s">
-        <v>446</v>
-      </c>
-      <c r="C357">
-        <f>2+(0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A358" t="s">
-        <v>444</v>
-      </c>
-      <c r="B358" t="s">
-        <v>447</v>
-      </c>
-      <c r="C358">
-        <f>1+(0)</f>
-        <v>1</v>
-      </c>
-      <c r="D358" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A359" t="s">
-        <v>444</v>
-      </c>
-      <c r="B359" t="s">
-        <v>448</v>
-      </c>
-      <c r="C359">
-        <f t="shared" ref="C359:C364" si="17">0+(0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A360" t="s">
-        <v>444</v>
-      </c>
-      <c r="B360" t="s">
-        <v>449</v>
-      </c>
-      <c r="C360">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A361" t="s">
-        <v>444</v>
-      </c>
-      <c r="B361" t="s">
-        <v>450</v>
-      </c>
-      <c r="C361">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A362" t="s">
-        <v>444</v>
-      </c>
-      <c r="B362" t="s">
-        <v>451</v>
-      </c>
-      <c r="C362">
-        <f t="shared" si="17"/>
-        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B363" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C363">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6814,25 +6919,27 @@
         <v>444</v>
       </c>
       <c r="B364" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C364">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D364" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B365" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C365">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D365" t="s">
-        <v>662</v>
+        <v>701</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
@@ -6840,11 +6947,14 @@
         <v>444</v>
       </c>
       <c r="B366" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C366">
-        <f>0+(0)</f>
-        <v>0</v>
+        <f>1+(0)</f>
+        <v>1</v>
+      </c>
+      <c r="D366" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
@@ -6852,10 +6962,10 @@
         <v>444</v>
       </c>
       <c r="B367" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C367">
-        <f>0+(0)</f>
+        <f t="shared" ref="C367:C372" si="15">0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6864,10 +6974,10 @@
         <v>444</v>
       </c>
       <c r="B368" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C368">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6876,10 +6986,10 @@
         <v>444</v>
       </c>
       <c r="B369" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C369">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6888,10 +6998,11 @@
         <v>444</v>
       </c>
       <c r="B370" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C370">
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
@@ -6899,10 +7010,11 @@
         <v>444</v>
       </c>
       <c r="B371" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C371">
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
@@ -6910,22 +7022,25 @@
         <v>444</v>
       </c>
       <c r="B372" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="C372">
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="B373" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C373">
-        <f>2+(0)</f>
         <v>2</v>
+      </c>
+      <c r="D373" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
@@ -6933,10 +7048,11 @@
         <v>444</v>
       </c>
       <c r="B374" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C374">
-        <v>2</v>
+        <f>0+(0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
@@ -6944,13 +7060,11 @@
         <v>444</v>
       </c>
       <c r="B375" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="C375">
-        <v>1</v>
-      </c>
-      <c r="D375" t="s">
-        <v>682</v>
+        <f>0+(0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
@@ -6958,10 +7072,11 @@
         <v>444</v>
       </c>
       <c r="B376" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="C376">
-        <v>2</v>
+        <f>0+(0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
@@ -6969,11 +7084,11 @@
         <v>444</v>
       </c>
       <c r="B377" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C377">
-        <f>2+(0)</f>
-        <v>2</v>
+        <f>0+(0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
@@ -6981,14 +7096,13 @@
         <v>444</v>
       </c>
       <c r="B378" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="C378">
-        <f>1+(0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D378" t="s">
-        <v>656</v>
+        <v>702</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
@@ -6996,11 +7110,13 @@
         <v>444</v>
       </c>
       <c r="B379" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="C379">
-        <f>2+(0)</f>
         <v>2</v>
+      </c>
+      <c r="D379" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
@@ -7008,10 +7124,13 @@
         <v>444</v>
       </c>
       <c r="B380" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C380">
         <v>2</v>
+      </c>
+      <c r="D380" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
@@ -7019,109 +7138,129 @@
         <v>444</v>
       </c>
       <c r="B381" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C381">
         <f>2+(0)</f>
         <v>2</v>
       </c>
+      <c r="D381" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="B382" t="s">
-        <v>364</v>
+        <v>464</v>
       </c>
       <c r="C382">
-        <f t="shared" ref="C382:C387" si="18">0+(0)</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D382" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="B383" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C383">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D383" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="B384" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C384">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D384" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="B385" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C385">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f>2+(0)</f>
+        <v>2</v>
+      </c>
+      <c r="D385" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="B386" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C386">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D386" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="B387" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C387">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f>2+(0)</f>
+        <v>2</v>
+      </c>
+      <c r="D387" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="B388" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C388">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D388" t="s">
-        <v>672</v>
+        <v>702</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="B389" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="C389">
-        <f t="shared" ref="C389:C420" si="19">0+(0)</f>
-        <v>0</v>
+        <f>2+(0)</f>
+        <v>2</v>
+      </c>
+      <c r="D389" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
@@ -7129,11 +7268,10 @@
         <v>472</v>
       </c>
       <c r="B390" t="s">
-        <v>480</v>
+        <v>364</v>
       </c>
       <c r="C390">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
@@ -7141,11 +7279,10 @@
         <v>472</v>
       </c>
       <c r="B391" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C391">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
@@ -7153,11 +7290,10 @@
         <v>472</v>
       </c>
       <c r="B392" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C392">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
@@ -7165,11 +7301,10 @@
         <v>472</v>
       </c>
       <c r="B393" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="C393">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
@@ -7177,11 +7312,10 @@
         <v>472</v>
       </c>
       <c r="B394" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C394">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
@@ -7189,11 +7323,10 @@
         <v>472</v>
       </c>
       <c r="B395" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C395">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -7201,11 +7334,13 @@
         <v>472</v>
       </c>
       <c r="B396" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C396">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="D396" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -7213,11 +7348,10 @@
         <v>472</v>
       </c>
       <c r="B397" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C397">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
@@ -7225,191 +7359,175 @@
         <v>472</v>
       </c>
       <c r="B398" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C398">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="B399" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C399">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="B400" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="C400">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="B401" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="C401">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="B402" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="C402">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="B403" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="C403">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="B404" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="C404">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="B405" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="C405">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="B406" t="s">
-        <v>233</v>
+        <v>488</v>
       </c>
       <c r="C406">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="B407" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C407">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B408" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C408">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B409" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="C409">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B410" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="C410">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B411" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="C411">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B412" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="C412">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B413" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="C413">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
@@ -7417,11 +7535,10 @@
         <v>498</v>
       </c>
       <c r="B414" t="s">
-        <v>506</v>
+        <v>233</v>
       </c>
       <c r="C414">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
@@ -7429,11 +7546,10 @@
         <v>498</v>
       </c>
       <c r="B415" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C415">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
@@ -7441,203 +7557,186 @@
         <v>498</v>
       </c>
       <c r="B416" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C416">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="B417" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="C417">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="B418" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="C418">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="B419" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="C419">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="B420" t="s">
-        <v>465</v>
+        <v>504</v>
       </c>
       <c r="C420">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="B421" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="C421">
-        <f t="shared" ref="C421:C452" si="20">0+(0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="B422" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="C422">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="B423" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C423">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="B424" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="C424">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B425" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="C425">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B426" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="C426">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B427" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="C427">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B428" t="s">
-        <v>523</v>
+        <v>465</v>
       </c>
       <c r="C428">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B429" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="C429">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B430" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="C430">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B431" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="C431">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B432" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="C432">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
@@ -7645,11 +7744,10 @@
         <v>519</v>
       </c>
       <c r="B433" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="C433">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
@@ -7657,11 +7755,10 @@
         <v>519</v>
       </c>
       <c r="B434" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C434">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
@@ -7669,11 +7766,10 @@
         <v>519</v>
       </c>
       <c r="B435" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C435">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
@@ -7681,11 +7777,10 @@
         <v>519</v>
       </c>
       <c r="B436" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="C436">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
@@ -7693,11 +7788,10 @@
         <v>519</v>
       </c>
       <c r="B437" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C437">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
@@ -7705,11 +7799,10 @@
         <v>519</v>
       </c>
       <c r="B438" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="C438">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
@@ -7717,11 +7810,10 @@
         <v>519</v>
       </c>
       <c r="B439" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C439">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
@@ -7729,11 +7821,10 @@
         <v>519</v>
       </c>
       <c r="B440" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="C440">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
@@ -7741,11 +7832,10 @@
         <v>519</v>
       </c>
       <c r="B441" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="C441">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
@@ -7753,11 +7843,10 @@
         <v>519</v>
       </c>
       <c r="B442" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C442">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
@@ -7765,11 +7854,10 @@
         <v>519</v>
       </c>
       <c r="B443" t="s">
-        <v>53</v>
+        <v>530</v>
       </c>
       <c r="C443">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
@@ -7777,11 +7865,10 @@
         <v>519</v>
       </c>
       <c r="B444" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C444">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
@@ -7789,107 +7876,98 @@
         <v>519</v>
       </c>
       <c r="B445" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="C445">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="B446" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="C446">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="B447" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C447">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="B448" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="C448">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="B449" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C449">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="B450" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C450">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="B451" t="s">
-        <v>546</v>
+        <v>53</v>
       </c>
       <c r="C451">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="B452" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="C452">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="B453" t="s">
-        <v>512</v>
+        <v>539</v>
       </c>
       <c r="C453">
-        <f t="shared" ref="C453:C484" si="21">0+(0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
@@ -7897,11 +7975,10 @@
         <v>540</v>
       </c>
       <c r="B454" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="C454">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
@@ -7909,155 +7986,142 @@
         <v>540</v>
       </c>
       <c r="B455" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="C455">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="B456" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="C456">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="B457" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="C457">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="B458" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="C458">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="B459" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="C459">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="B460" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="C460">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="B461" t="s">
-        <v>558</v>
+        <v>512</v>
       </c>
       <c r="C461">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="B462" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="C462">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="B463" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="C463">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B464" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="C464">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B465" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="C465">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B466" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="C466">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="B467" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C467">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
@@ -8065,11 +8129,10 @@
         <v>555</v>
       </c>
       <c r="B468" t="s">
-        <v>380</v>
+        <v>557</v>
       </c>
       <c r="C468">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
@@ -8077,11 +8140,10 @@
         <v>555</v>
       </c>
       <c r="B469" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="C469">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
@@ -8089,11 +8151,10 @@
         <v>555</v>
       </c>
       <c r="B470" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="C470">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
@@ -8101,11 +8162,10 @@
         <v>555</v>
       </c>
       <c r="B471" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="C471">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
@@ -8113,11 +8173,10 @@
         <v>555</v>
       </c>
       <c r="B472" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="C472">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
@@ -8125,11 +8184,10 @@
         <v>555</v>
       </c>
       <c r="B473" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C473">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
@@ -8137,35 +8195,32 @@
         <v>555</v>
       </c>
       <c r="B474" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="C474">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="B475" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="C475">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="B476" t="s">
-        <v>573</v>
+        <v>380</v>
       </c>
       <c r="C476">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
@@ -8173,11 +8228,10 @@
         <v>555</v>
       </c>
       <c r="B477" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C477">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
@@ -8185,11 +8239,10 @@
         <v>555</v>
       </c>
       <c r="B478" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="C478">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
@@ -8197,11 +8250,10 @@
         <v>555</v>
       </c>
       <c r="B479" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="C479">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
@@ -8209,11 +8261,10 @@
         <v>555</v>
       </c>
       <c r="B480" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="C480">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
@@ -8221,11 +8272,10 @@
         <v>555</v>
       </c>
       <c r="B481" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="C481">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
@@ -8233,11 +8283,10 @@
         <v>555</v>
       </c>
       <c r="B482" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C482">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
@@ -8245,23 +8294,21 @@
         <v>555</v>
       </c>
       <c r="B483" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C483">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="B484" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C484">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
@@ -8269,11 +8316,10 @@
         <v>555</v>
       </c>
       <c r="B485" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="C485">
-        <f t="shared" ref="C485:C516" si="22">0+(0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
@@ -8281,11 +8327,10 @@
         <v>555</v>
       </c>
       <c r="B486" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="C486">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
@@ -8293,11 +8338,10 @@
         <v>555</v>
       </c>
       <c r="B487" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="C487">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
@@ -8305,11 +8349,10 @@
         <v>555</v>
       </c>
       <c r="B488" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="C488">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -8317,11 +8360,10 @@
         <v>555</v>
       </c>
       <c r="B489" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="C489">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
@@ -8329,11 +8371,10 @@
         <v>555</v>
       </c>
       <c r="B490" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="C490">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -8341,11 +8382,10 @@
         <v>555</v>
       </c>
       <c r="B491" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="C491">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -8353,11 +8393,10 @@
         <v>555</v>
       </c>
       <c r="B492" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="C492">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -8365,11 +8404,10 @@
         <v>555</v>
       </c>
       <c r="B493" t="s">
-        <v>450</v>
+        <v>582</v>
       </c>
       <c r="C493">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -8377,107 +8415,98 @@
         <v>555</v>
       </c>
       <c r="B494" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C494">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="B495" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="C495">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="B496" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="C496">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="B497" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="C497">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="B498" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="C498">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="B499" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="C499">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="B500" t="s">
-        <v>53</v>
+        <v>589</v>
       </c>
       <c r="C500">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="B501" t="s">
-        <v>597</v>
+        <v>450</v>
       </c>
       <c r="C501">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="B502" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="C502">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
@@ -8485,11 +8514,10 @@
         <v>591</v>
       </c>
       <c r="B503" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="C503">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
@@ -8497,11 +8525,10 @@
         <v>591</v>
       </c>
       <c r="B504" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="C504">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
@@ -8509,11 +8536,10 @@
         <v>591</v>
       </c>
       <c r="B505" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="C505">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
@@ -8521,11 +8547,10 @@
         <v>591</v>
       </c>
       <c r="B506" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="C506">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
@@ -8533,11 +8558,10 @@
         <v>591</v>
       </c>
       <c r="B507" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="C507">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
@@ -8545,11 +8569,10 @@
         <v>591</v>
       </c>
       <c r="B508" t="s">
-        <v>202</v>
+        <v>53</v>
       </c>
       <c r="C508">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
@@ -8557,11 +8580,10 @@
         <v>591</v>
       </c>
       <c r="B509" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="C509">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
@@ -8569,11 +8591,10 @@
         <v>591</v>
       </c>
       <c r="B510" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="C510">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
@@ -8581,11 +8602,10 @@
         <v>591</v>
       </c>
       <c r="B511" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="C511">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
@@ -8593,11 +8613,10 @@
         <v>591</v>
       </c>
       <c r="B512" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="C512">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
@@ -8605,11 +8624,10 @@
         <v>591</v>
       </c>
       <c r="B513" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="C513">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
@@ -8617,11 +8635,10 @@
         <v>591</v>
       </c>
       <c r="B514" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="C514">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
@@ -8629,11 +8646,10 @@
         <v>591</v>
       </c>
       <c r="B515" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="C515">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
@@ -8641,11 +8657,10 @@
         <v>591</v>
       </c>
       <c r="B516" t="s">
-        <v>611</v>
+        <v>202</v>
       </c>
       <c r="C516">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
@@ -8653,11 +8668,10 @@
         <v>591</v>
       </c>
       <c r="B517" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="C517">
-        <f t="shared" ref="C517:C548" si="23">0+(0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -8665,11 +8679,10 @@
         <v>591</v>
       </c>
       <c r="B518" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="C518">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
@@ -8677,11 +8690,10 @@
         <v>591</v>
       </c>
       <c r="B519" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="C519">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -8689,11 +8701,10 @@
         <v>591</v>
       </c>
       <c r="B520" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="C520">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -8701,11 +8712,10 @@
         <v>591</v>
       </c>
       <c r="B521" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="C521">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -8713,11 +8723,10 @@
         <v>591</v>
       </c>
       <c r="B522" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="C522">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -8725,11 +8734,10 @@
         <v>591</v>
       </c>
       <c r="B523" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="C523">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
@@ -8737,11 +8745,10 @@
         <v>591</v>
       </c>
       <c r="B524" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="C524">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -8749,11 +8756,10 @@
         <v>591</v>
       </c>
       <c r="B525" t="s">
-        <v>500</v>
+        <v>612</v>
       </c>
       <c r="C525">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -8761,11 +8767,10 @@
         <v>591</v>
       </c>
       <c r="B526" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="C526">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -8773,11 +8778,10 @@
         <v>591</v>
       </c>
       <c r="B527" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="C527">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -8785,11 +8789,10 @@
         <v>591</v>
       </c>
       <c r="B528" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="C528">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -8797,11 +8800,10 @@
         <v>591</v>
       </c>
       <c r="B529" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="C529">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -8809,11 +8811,10 @@
         <v>591</v>
       </c>
       <c r="B530" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="C530">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -8821,11 +8822,10 @@
         <v>591</v>
       </c>
       <c r="B531" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="C531">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
@@ -8833,11 +8833,10 @@
         <v>591</v>
       </c>
       <c r="B532" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C532">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -8845,11 +8844,10 @@
         <v>591</v>
       </c>
       <c r="B533" t="s">
-        <v>627</v>
+        <v>500</v>
       </c>
       <c r="C533">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -8857,11 +8855,10 @@
         <v>591</v>
       </c>
       <c r="B534" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="C534">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -8869,11 +8866,10 @@
         <v>591</v>
       </c>
       <c r="B535" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="C535">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -8881,11 +8877,10 @@
         <v>591</v>
       </c>
       <c r="B536" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="C536">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -8893,11 +8888,10 @@
         <v>591</v>
       </c>
       <c r="B537" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="C537">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
@@ -8905,11 +8899,10 @@
         <v>591</v>
       </c>
       <c r="B538" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="C538">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
@@ -8917,11 +8910,10 @@
         <v>591</v>
       </c>
       <c r="B539" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="C539">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
@@ -8929,11 +8921,10 @@
         <v>591</v>
       </c>
       <c r="B540" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="C540">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -8941,11 +8932,10 @@
         <v>591</v>
       </c>
       <c r="B541" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="C541">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -8953,11 +8943,10 @@
         <v>591</v>
       </c>
       <c r="B542" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="C542">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
@@ -8965,11 +8954,10 @@
         <v>591</v>
       </c>
       <c r="B543" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="C543">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
@@ -8977,11 +8965,10 @@
         <v>591</v>
       </c>
       <c r="B544" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C544">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
@@ -8989,11 +8976,10 @@
         <v>591</v>
       </c>
       <c r="B545" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="C545">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
@@ -9001,11 +8987,10 @@
         <v>591</v>
       </c>
       <c r="B546" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="C546">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -9013,11 +8998,10 @@
         <v>591</v>
       </c>
       <c r="B547" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="C547">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
@@ -9025,11 +9009,10 @@
         <v>591</v>
       </c>
       <c r="B548" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="C548">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
@@ -9037,11 +9020,10 @@
         <v>591</v>
       </c>
       <c r="B549" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="C549">
-        <f t="shared" ref="C549:C559" si="24">0+(0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
@@ -9049,11 +9031,10 @@
         <v>591</v>
       </c>
       <c r="B550" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="C550">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
@@ -9061,11 +9042,10 @@
         <v>591</v>
       </c>
       <c r="B551" t="s">
-        <v>22</v>
+        <v>637</v>
       </c>
       <c r="C551">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
@@ -9073,11 +9053,10 @@
         <v>591</v>
       </c>
       <c r="B552" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="C552">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
@@ -9085,11 +9064,10 @@
         <v>591</v>
       </c>
       <c r="B553" t="s">
-        <v>380</v>
+        <v>639</v>
       </c>
       <c r="C553">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
@@ -9097,11 +9075,10 @@
         <v>591</v>
       </c>
       <c r="B554" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C554">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
@@ -9109,11 +9086,10 @@
         <v>591</v>
       </c>
       <c r="B555" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C555">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
@@ -9121,11 +9097,10 @@
         <v>591</v>
       </c>
       <c r="B556" t="s">
-        <v>258</v>
+        <v>642</v>
       </c>
       <c r="C556">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
@@ -9133,11 +9108,10 @@
         <v>591</v>
       </c>
       <c r="B557" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C557">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
@@ -9145,11 +9119,10 @@
         <v>591</v>
       </c>
       <c r="B558" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C558">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
@@ -9157,11 +9130,10 @@
         <v>591</v>
       </c>
       <c r="B559" t="s">
-        <v>650</v>
+        <v>22</v>
       </c>
       <c r="C559">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
@@ -9169,10 +9141,98 @@
         <v>591</v>
       </c>
       <c r="B560" t="s">
+        <v>645</v>
+      </c>
+      <c r="C560">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>591</v>
+      </c>
+      <c r="B561" t="s">
+        <v>380</v>
+      </c>
+      <c r="C561">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>591</v>
+      </c>
+      <c r="B562" t="s">
+        <v>646</v>
+      </c>
+      <c r="C562">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>591</v>
+      </c>
+      <c r="B563" t="s">
+        <v>647</v>
+      </c>
+      <c r="C563">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>591</v>
+      </c>
+      <c r="B564" t="s">
+        <v>258</v>
+      </c>
+      <c r="C564">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>591</v>
+      </c>
+      <c r="B565" t="s">
+        <v>648</v>
+      </c>
+      <c r="C565">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>591</v>
+      </c>
+      <c r="B566" t="s">
+        <v>649</v>
+      </c>
+      <c r="C566">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>591</v>
+      </c>
+      <c r="B567" t="s">
+        <v>650</v>
+      </c>
+      <c r="C567">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>591</v>
+      </c>
+      <c r="B568" t="s">
         <v>651</v>
       </c>
-      <c r="C560">
-        <v>0</v>
+      <c r="C568">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/neoteny/neoteny.xlsx
+++ b/neoteny/neoteny.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2140" windowWidth="26660" windowHeight="25060" tabRatio="500"/>
+    <workbookView xWindow="24540" yWindow="2140" windowWidth="26660" windowHeight="25060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="723">
   <si>
     <t>species</t>
   </si>
@@ -2181,6 +2181,21 @@
   </si>
   <si>
     <t>Wake and Hanken 1996 + Bonett et al 2014</t>
+  </si>
+  <si>
+    <t>Nuominerpeton</t>
+  </si>
+  <si>
+    <t>aquilonaris</t>
+  </si>
+  <si>
+    <t>well-ossified mesopodium</t>
+  </si>
+  <si>
+    <t>cf.sibiricus</t>
+  </si>
+  <si>
+    <t>sp.</t>
   </si>
 </sst>
 </file>
@@ -2495,10 +2510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D568"/>
+  <dimension ref="A1:D571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
-      <selection activeCell="I369" sqref="I369"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2522,58 +2537,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>721</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C8" si="0">0+(0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>722</v>
       </c>
       <c r="C3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>718</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>719</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C5:C11" si="0">0+(0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -2582,10 +2597,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -2594,10 +2609,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -2606,48 +2621,48 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:C16" si="1">2+(0)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2656,19 +2671,19 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C13:C19" si="1">2+(0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -2677,10 +2692,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -2689,10 +2704,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -2701,43 +2716,46 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C17">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C19">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -2745,84 +2763,81 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>34</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B24" t="s">
         <v>35</v>
       </c>
-      <c r="C21">
+      <c r="C24">
         <f>2+(0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>36</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
         <v>37</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>38</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" t="s">
         <v>39</v>
       </c>
-      <c r="C23">
+      <c r="C26">
         <f>2+(0)</f>
         <v>2</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D26" t="s">
         <v>668</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24">
-        <f>0+(0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25">
-        <f>0+(0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26">
-        <f>0+(0)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <f>0+(0)</f>
@@ -2831,10 +2846,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C28">
         <f>0+(0)</f>
@@ -2843,210 +2858,210 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29">
+        <f>0+(0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30">
+        <f>0+(0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31">
+        <f>0+(0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>46</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B32" t="s">
         <v>47</v>
       </c>
-      <c r="C29">
+      <c r="C32">
         <f>2+(0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>48</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B33" t="s">
         <v>49</v>
       </c>
-      <c r="C30">
+      <c r="C33">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>50</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B34" t="s">
         <v>51</v>
       </c>
-      <c r="C31">
+      <c r="C34">
         <f>2+(0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32">
-        <f>0+(0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-    </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <f>0+(0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="D36" t="s">
-        <v>668</v>
-      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>61</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B40" t="s">
         <v>62</v>
       </c>
-      <c r="C37">
+      <c r="C40">
         <f>1+(0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38">
-        <f>0+(0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39">
-        <f>0+(0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-    </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <f>0+(0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42">
+        <f>0+(0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>71</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B45" t="s">
         <v>72</v>
       </c>
-      <c r="C42">
+      <c r="C45">
         <f>2+(0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43">
-        <f>0+(0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44">
-        <f>0+(0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45">
-        <f>0+(0)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C46">
         <f>0+(0)</f>
@@ -3055,58 +3070,58 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47:C53" si="2">2+(0)</f>
-        <v>2</v>
+        <f>0+(0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C48">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>0+(0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C49">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>0+(0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C50">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C50:C56" si="2">2+(0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C51">
         <f t="shared" si="2"/>
@@ -3115,10 +3130,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C52">
         <f t="shared" si="2"/>
@@ -3127,10 +3142,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C53">
         <f t="shared" si="2"/>
@@ -3139,66 +3154,60 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="C54">
+        <f t="shared" si="2"/>
         <v>2</v>
-      </c>
-      <c r="D54" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="C55">
-        <f>2+(0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B56" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C56">
-        <f>0+(0)</f>
-        <v>0</v>
-      </c>
-      <c r="D56" t="s">
-        <v>667</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="C57">
-        <f>0+(0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B58" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="C58">
         <f>2+(0)</f>
@@ -3207,119 +3216,119 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C59">
+        <f>0+(0)</f>
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60">
+        <f>0+(0)</f>
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61">
         <f>2+(0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>103</v>
-      </c>
-      <c r="B60" t="s">
-        <v>104</v>
-      </c>
-      <c r="C60">
-        <f>0+(0)</f>
-        <v>0</v>
-      </c>
-      <c r="D60" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>105</v>
-      </c>
-      <c r="B61" t="s">
-        <v>106</v>
-      </c>
-      <c r="C61">
-        <f>0+(0)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B62" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C62">
-        <f>0+(0)</f>
-        <v>0</v>
+        <f>2+(0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63">
+        <f>0+(0)</f>
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>105</v>
+      </c>
+      <c r="B64" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64">
+        <f>0+(0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65">
+        <f>0+(0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>109</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B66" t="s">
         <v>110</v>
       </c>
-      <c r="C63">
+      <c r="C66">
         <f>2+(0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>111</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B67" t="s">
         <v>112</v>
       </c>
-      <c r="C64">
+      <c r="C67">
         <f>2+(0)</f>
         <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>113</v>
-      </c>
-      <c r="B65" t="s">
-        <v>709</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>113</v>
-      </c>
-      <c r="B66" t="s">
-        <v>707</v>
-      </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-      <c r="D66" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>113</v>
-      </c>
-      <c r="B67" t="s">
-        <v>705</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -3327,14 +3336,13 @@
         <v>113</v>
       </c>
       <c r="B68" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="C68">
-        <f>1+(0)</f>
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>660</v>
+        <v>710</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -3342,13 +3350,13 @@
         <v>113</v>
       </c>
       <c r="B69" t="s">
-        <v>114</v>
+        <v>707</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>681</v>
+        <v>708</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -3356,54 +3364,62 @@
         <v>113</v>
       </c>
       <c r="B70" t="s">
-        <v>115</v>
+        <v>705</v>
       </c>
       <c r="C70">
-        <f>0+(0)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
+        <v>659</v>
       </c>
       <c r="C71">
-        <f>2+(0)</f>
-        <v>2</v>
+        <f>1+(0)</f>
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B72" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B73" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C73">
-        <f>2+(0)</f>
-        <v>2</v>
+        <f>0+(0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B74" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C74">
         <f>2+(0)</f>
@@ -3412,22 +3428,21 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B75" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C75">
-        <f>2+(0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B76" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C76">
         <f>2+(0)</f>
@@ -3436,57 +3451,60 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B77" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C77">
+        <f>2+(0)</f>
         <v>2</v>
-      </c>
-      <c r="D77" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B78" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C78">
+        <f>2+(0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B79" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C79">
+        <f>2+(0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B80" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
+      <c r="D80" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B81" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -3494,264 +3512,258 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>129</v>
+      </c>
+      <c r="B82" t="s">
+        <v>131</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>132</v>
+      </c>
+      <c r="B83" t="s">
+        <v>133</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84" t="s">
+        <v>134</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>135</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B85" t="s">
         <v>136</v>
       </c>
-      <c r="C82">
+      <c r="C85">
         <f>2+(0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>135</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B86" t="s">
         <v>137</v>
       </c>
-      <c r="C83">
+      <c r="C86">
         <f>2+(0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>138</v>
-      </c>
-      <c r="B84" t="s">
-        <v>139</v>
-      </c>
-      <c r="C84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>140</v>
-      </c>
-      <c r="B85" t="s">
-        <v>141</v>
-      </c>
-      <c r="C85">
-        <v>2</v>
-      </c>
-      <c r="D85" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>142</v>
-      </c>
-      <c r="B86" t="s">
-        <v>143</v>
-      </c>
-      <c r="C86">
-        <v>2</v>
-      </c>
-      <c r="D86" t="s">
-        <v>666</v>
-      </c>
-    </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B87" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C87">
-        <f t="shared" ref="C87:C90" si="3">0+(0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B88" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C88">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B89" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C89">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B90" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C90">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C90:C93" si="3">0+(0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>146</v>
+      </c>
+      <c r="B91" t="s">
+        <v>147</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>148</v>
+      </c>
+      <c r="B92" t="s">
+        <v>149</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>150</v>
+      </c>
+      <c r="B93" t="s">
+        <v>151</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>152</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B94" t="s">
         <v>153</v>
       </c>
-      <c r="C91">
+      <c r="C94">
         <f>1+(0)</f>
         <v>1</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D94" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>154</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B95" t="s">
         <v>155</v>
       </c>
-      <c r="C92">
+      <c r="C95">
         <f>0+(0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>156</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B96" t="s">
         <v>157</v>
       </c>
-      <c r="C93">
+      <c r="C96">
         <f>0+(0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>158</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B97" t="s">
         <v>159</v>
       </c>
-      <c r="C94">
+      <c r="C97">
         <f>2+(0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>80</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B98" t="s">
         <v>160</v>
       </c>
-      <c r="C95">
+      <c r="C98">
         <f>2+(0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>80</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B99" t="s">
         <v>161</v>
       </c>
-      <c r="C96">
+      <c r="C99">
         <f>2+(0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>162</v>
-      </c>
-      <c r="B97" t="s">
-        <v>161</v>
-      </c>
-      <c r="C97">
-        <f t="shared" ref="C97:C116" si="4">0+(0)</f>
-        <v>0</v>
-      </c>
-      <c r="D97" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>162</v>
-      </c>
-      <c r="B98" t="s">
-        <v>163</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>164</v>
-      </c>
-      <c r="B99" t="s">
-        <v>165</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B100" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C100">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="C100:C119" si="4">0+(0)</f>
+        <v>0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B101" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C101">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>700</v>
+        <v>669</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B102" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C102">
         <f t="shared" si="4"/>
@@ -3760,10 +3772,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B103" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C103">
         <f t="shared" si="4"/>
@@ -3772,36 +3784,37 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B104" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="D104" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B105" t="s">
-        <v>711</v>
+        <v>171</v>
       </c>
       <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105" t="s">
-        <v>712</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B106" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C106">
         <f t="shared" si="4"/>
@@ -3810,10 +3823,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B107" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C107">
         <f t="shared" si="4"/>
@@ -3825,13 +3838,13 @@
         <v>174</v>
       </c>
       <c r="B108" t="s">
-        <v>177</v>
+        <v>711</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -3839,7 +3852,7 @@
         <v>174</v>
       </c>
       <c r="B109" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C109">
         <f t="shared" si="4"/>
@@ -3851,7 +3864,7 @@
         <v>174</v>
       </c>
       <c r="B110" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C110">
         <f t="shared" si="4"/>
@@ -3860,22 +3873,24 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B111" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C111">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D111" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B112" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C112">
         <f t="shared" si="4"/>
@@ -3884,10 +3899,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B113" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C113">
         <f t="shared" si="4"/>
@@ -3896,10 +3911,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B114" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C114">
         <f t="shared" si="4"/>
@@ -3911,7 +3926,7 @@
         <v>180</v>
       </c>
       <c r="B115" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C115">
         <f t="shared" si="4"/>
@@ -3920,10 +3935,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B116" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C116">
         <f t="shared" si="4"/>
@@ -3932,39 +3947,37 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B117" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" t="s">
-        <v>661</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B118" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C118">
-        <f t="shared" ref="C118:C145" si="5">0+(0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B119" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3973,11 +3986,13 @@
         <v>188</v>
       </c>
       <c r="B120" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C120">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D120" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -3985,10 +4000,10 @@
         <v>188</v>
       </c>
       <c r="B121" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C121">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="C121:C148" si="5">0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3997,14 +4012,11 @@
         <v>188</v>
       </c>
       <c r="B122" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C122">
         <f t="shared" si="5"/>
         <v>0</v>
-      </c>
-      <c r="D122" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -4012,7 +4024,7 @@
         <v>188</v>
       </c>
       <c r="B123" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C123">
         <f t="shared" si="5"/>
@@ -4024,7 +4036,7 @@
         <v>188</v>
       </c>
       <c r="B124" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C124">
         <f t="shared" si="5"/>
@@ -4036,11 +4048,14 @@
         <v>188</v>
       </c>
       <c r="B125" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C125">
         <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+      <c r="D125" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -4048,7 +4063,7 @@
         <v>188</v>
       </c>
       <c r="B126" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C126">
         <f t="shared" si="5"/>
@@ -4060,7 +4075,7 @@
         <v>188</v>
       </c>
       <c r="B127" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C127">
         <f t="shared" si="5"/>
@@ -4072,7 +4087,7 @@
         <v>188</v>
       </c>
       <c r="B128" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C128">
         <f t="shared" si="5"/>
@@ -4084,7 +4099,7 @@
         <v>188</v>
       </c>
       <c r="B129" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C129">
         <f t="shared" si="5"/>
@@ -4096,7 +4111,7 @@
         <v>188</v>
       </c>
       <c r="B130" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C130">
         <f t="shared" si="5"/>
@@ -4108,7 +4123,7 @@
         <v>188</v>
       </c>
       <c r="B131" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C131">
         <f t="shared" si="5"/>
@@ -4120,7 +4135,7 @@
         <v>188</v>
       </c>
       <c r="B132" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C132">
         <f t="shared" si="5"/>
@@ -4132,7 +4147,7 @@
         <v>188</v>
       </c>
       <c r="B133" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C133">
         <f t="shared" si="5"/>
@@ -4144,7 +4159,7 @@
         <v>188</v>
       </c>
       <c r="B134" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C134">
         <f t="shared" si="5"/>
@@ -4156,7 +4171,7 @@
         <v>188</v>
       </c>
       <c r="B135" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C135">
         <f t="shared" si="5"/>
@@ -4168,7 +4183,7 @@
         <v>188</v>
       </c>
       <c r="B136" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C136">
         <f t="shared" si="5"/>
@@ -4180,7 +4195,7 @@
         <v>188</v>
       </c>
       <c r="B137" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C137">
         <f t="shared" si="5"/>
@@ -4192,7 +4207,7 @@
         <v>188</v>
       </c>
       <c r="B138" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C138">
         <f t="shared" si="5"/>
@@ -4204,7 +4219,7 @@
         <v>188</v>
       </c>
       <c r="B139" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C139">
         <f t="shared" si="5"/>
@@ -4216,7 +4231,7 @@
         <v>188</v>
       </c>
       <c r="B140" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C140">
         <f t="shared" si="5"/>
@@ -4228,7 +4243,7 @@
         <v>188</v>
       </c>
       <c r="B141" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C141">
         <f t="shared" si="5"/>
@@ -4240,7 +4255,7 @@
         <v>188</v>
       </c>
       <c r="B142" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C142">
         <f t="shared" si="5"/>
@@ -4252,7 +4267,7 @@
         <v>188</v>
       </c>
       <c r="B143" t="s">
-        <v>22</v>
+        <v>212</v>
       </c>
       <c r="C143">
         <f t="shared" si="5"/>
@@ -4264,7 +4279,7 @@
         <v>188</v>
       </c>
       <c r="B144" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C144">
         <f t="shared" si="5"/>
@@ -4276,7 +4291,7 @@
         <v>188</v>
       </c>
       <c r="B145" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C145">
         <f t="shared" si="5"/>
@@ -4285,43 +4300,46 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="B146" t="s">
-        <v>217</v>
+        <v>22</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="B147" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="B148" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B149" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C149">
         <v>2</v>
@@ -4329,38 +4347,34 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="B150" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C150">
-        <v>1</v>
-      </c>
-      <c r="D150" t="s">
-        <v>680</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="B151" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="B152" t="s">
-        <v>139</v>
+        <v>220</v>
       </c>
       <c r="C152">
-        <f>2+(0)</f>
         <v>2</v>
       </c>
     </row>
@@ -4369,52 +4383,47 @@
         <v>101</v>
       </c>
       <c r="B153" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
+      <c r="D153" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B154" t="s">
-        <v>694</v>
+        <v>222</v>
       </c>
       <c r="C154">
-        <v>0</v>
-      </c>
-      <c r="D154" t="s">
-        <v>695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B155" t="s">
-        <v>692</v>
+        <v>139</v>
       </c>
       <c r="C155">
+        <f>2+(0)</f>
         <v>2</v>
-      </c>
-      <c r="D155" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B156" t="s">
-        <v>690</v>
+        <v>223</v>
       </c>
       <c r="C156">
-        <v>2</v>
-      </c>
-      <c r="D156" t="s">
-        <v>691</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -4422,14 +4431,13 @@
         <v>113</v>
       </c>
       <c r="B157" t="s">
-        <v>224</v>
+        <v>694</v>
       </c>
       <c r="C157">
-        <f>1+(0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D157" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -4437,14 +4445,13 @@
         <v>113</v>
       </c>
       <c r="B158" t="s">
-        <v>225</v>
+        <v>692</v>
       </c>
       <c r="C158">
-        <f>1+(0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D158" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -4452,11 +4459,13 @@
         <v>113</v>
       </c>
       <c r="B159" t="s">
-        <v>226</v>
+        <v>690</v>
       </c>
       <c r="C159">
-        <f t="shared" ref="C159:C168" si="6">0+(0)</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D159" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -4464,11 +4473,14 @@
         <v>113</v>
       </c>
       <c r="B160" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C160">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>1+(0)</f>
+        <v>1</v>
+      </c>
+      <c r="D160" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -4476,11 +4488,14 @@
         <v>113</v>
       </c>
       <c r="B161" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C161">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>1+(0)</f>
+        <v>1</v>
+      </c>
+      <c r="D161" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -4488,10 +4503,10 @@
         <v>113</v>
       </c>
       <c r="B162" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C162">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="C162:C171" si="6">0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4500,7 +4515,7 @@
         <v>113</v>
       </c>
       <c r="B163" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C163">
         <f t="shared" si="6"/>
@@ -4512,7 +4527,7 @@
         <v>113</v>
       </c>
       <c r="B164" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C164">
         <f t="shared" si="6"/>
@@ -4524,7 +4539,7 @@
         <v>113</v>
       </c>
       <c r="B165" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C165">
         <f t="shared" si="6"/>
@@ -4536,7 +4551,7 @@
         <v>113</v>
       </c>
       <c r="B166" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C166">
         <f t="shared" si="6"/>
@@ -4548,14 +4563,11 @@
         <v>113</v>
       </c>
       <c r="B167" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C167">
         <f t="shared" si="6"/>
         <v>0</v>
-      </c>
-      <c r="D167" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -4563,7 +4575,7 @@
         <v>113</v>
       </c>
       <c r="B168" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C168">
         <f t="shared" si="6"/>
@@ -4575,14 +4587,11 @@
         <v>113</v>
       </c>
       <c r="B169" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C169">
-        <f>1+(0)</f>
-        <v>1</v>
-      </c>
-      <c r="D169" t="s">
-        <v>654</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -4590,13 +4599,14 @@
         <v>113</v>
       </c>
       <c r="B170" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D170" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -4604,14 +4614,11 @@
         <v>113</v>
       </c>
       <c r="B171" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C171">
-        <f>2+(0)</f>
-        <v>2</v>
-      </c>
-      <c r="D171" t="s">
-        <v>687</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -4619,14 +4626,14 @@
         <v>113</v>
       </c>
       <c r="B172" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C172">
-        <f>2+(0)</f>
-        <v>2</v>
+        <f>1+(0)</f>
+        <v>1</v>
       </c>
       <c r="D172" t="s">
-        <v>686</v>
+        <v>654</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -4634,73 +4641,78 @@
         <v>113</v>
       </c>
       <c r="B173" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>113</v>
+      </c>
+      <c r="B174" t="s">
+        <v>238</v>
+      </c>
+      <c r="C174">
         <f>2+(0)</f>
         <v>2</v>
       </c>
-      <c r="D173" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>241</v>
-      </c>
-      <c r="B174" t="s">
-        <v>242</v>
-      </c>
-      <c r="C174">
-        <f t="shared" ref="C174:C190" si="7">0+(0)</f>
-        <v>0</v>
+      <c r="D174" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>241</v>
+        <v>113</v>
       </c>
       <c r="B175" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C175">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>2+(0)</f>
+        <v>2</v>
+      </c>
+      <c r="D175" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>244</v>
+        <v>113</v>
       </c>
       <c r="B176" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C176">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>2+(0)</f>
+        <v>2</v>
+      </c>
+      <c r="D176" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>65</v>
+        <v>241</v>
       </c>
       <c r="B177" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C177">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D177" t="s">
-        <v>697</v>
+        <f t="shared" ref="C177:C193" si="7">0+(0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="B178" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C178">
         <f t="shared" si="7"/>
@@ -4709,10 +4721,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>63</v>
+        <v>244</v>
       </c>
       <c r="B179" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C179">
         <f t="shared" si="7"/>
@@ -4721,16 +4733,17 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B180" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="D180" t="s">
-        <v>670</v>
+        <v>697</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -4738,7 +4751,7 @@
         <v>63</v>
       </c>
       <c r="B181" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C181">
         <f t="shared" si="7"/>
@@ -4750,7 +4763,7 @@
         <v>63</v>
       </c>
       <c r="B182" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C182">
         <f t="shared" si="7"/>
@@ -4762,19 +4775,21 @@
         <v>63</v>
       </c>
       <c r="B183" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C183">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D183" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>253</v>
+        <v>63</v>
       </c>
       <c r="B184" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C184">
         <f t="shared" si="7"/>
@@ -4783,10 +4798,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>253</v>
+        <v>63</v>
       </c>
       <c r="B185" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C185">
         <f t="shared" si="7"/>
@@ -4795,10 +4810,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>253</v>
+        <v>63</v>
       </c>
       <c r="B186" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C186">
         <f t="shared" si="7"/>
@@ -4810,7 +4825,7 @@
         <v>253</v>
       </c>
       <c r="B187" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C187">
         <f t="shared" si="7"/>
@@ -4822,7 +4837,7 @@
         <v>253</v>
       </c>
       <c r="B188" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C188">
         <f t="shared" si="7"/>
@@ -4834,7 +4849,7 @@
         <v>253</v>
       </c>
       <c r="B189" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C189">
         <f t="shared" si="7"/>
@@ -4846,7 +4861,7 @@
         <v>253</v>
       </c>
       <c r="B190" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C190">
         <f t="shared" si="7"/>
@@ -4855,70 +4870,70 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
+        <v>253</v>
+      </c>
+      <c r="B191" t="s">
+        <v>258</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>253</v>
+      </c>
+      <c r="B192" t="s">
+        <v>259</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>253</v>
+      </c>
+      <c r="B193" t="s">
+        <v>260</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
         <v>61</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B194" t="s">
         <v>261</v>
       </c>
-      <c r="C191">
+      <c r="C194">
         <f>1+(0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>61</v>
-      </c>
-      <c r="B192" t="s">
-        <v>214</v>
-      </c>
-      <c r="C192">
-        <f t="shared" ref="C192:C202" si="8">0+(0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>61</v>
-      </c>
-      <c r="B193" t="s">
-        <v>262</v>
-      </c>
-      <c r="C193">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>263</v>
-      </c>
-      <c r="B194" t="s">
-        <v>264</v>
-      </c>
-      <c r="C194">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>263</v>
+        <v>61</v>
       </c>
       <c r="B195" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="C195">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="C195:C205" si="8">0+(0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>265</v>
+        <v>61</v>
       </c>
       <c r="B196" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C196">
         <f t="shared" si="8"/>
@@ -4927,10 +4942,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B197" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C197">
         <f t="shared" si="8"/>
@@ -4939,10 +4954,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B198" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="C198">
         <f t="shared" si="8"/>
@@ -4954,7 +4969,7 @@
         <v>265</v>
       </c>
       <c r="B199" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C199">
         <f t="shared" si="8"/>
@@ -4966,7 +4981,7 @@
         <v>265</v>
       </c>
       <c r="B200" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C200">
         <f t="shared" si="8"/>
@@ -4978,7 +4993,7 @@
         <v>265</v>
       </c>
       <c r="B201" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C201">
         <f t="shared" si="8"/>
@@ -4987,10 +5002,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>3</v>
+        <v>265</v>
       </c>
       <c r="B202" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C202">
         <f t="shared" si="8"/>
@@ -4999,48 +5014,46 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>3</v>
+        <v>265</v>
       </c>
       <c r="B203" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C203">
-        <f>1+(0)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>3</v>
+        <v>265</v>
       </c>
       <c r="B204" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C204">
-        <v>1</v>
-      </c>
-      <c r="D204" t="s">
-        <v>661</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="B205" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C205">
-        <f>0+(0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="B206" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C206">
         <f>1+(0)</f>
@@ -5049,49 +5062,48 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="B207" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C207">
-        <f>0+(0)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D207" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B208" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C208">
-        <f>1+(0)</f>
-        <v>1</v>
+        <f>0+(0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="B209" t="s">
-        <v>657</v>
+        <v>276</v>
       </c>
       <c r="C209">
         <f>1+(0)</f>
         <v>1</v>
       </c>
-      <c r="D209" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="B210" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C210">
         <f>0+(0)</f>
@@ -5100,16 +5112,14 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>279</v>
+        <v>43</v>
       </c>
       <c r="B211" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C211">
+        <f>1+(0)</f>
         <v>1</v>
-      </c>
-      <c r="D211" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -5117,11 +5127,14 @@
         <v>279</v>
       </c>
       <c r="B212" t="s">
-        <v>282</v>
+        <v>657</v>
       </c>
       <c r="C212">
-        <f t="shared" ref="C212:C218" si="9">0+(0)</f>
-        <v>0</v>
+        <f>1+(0)</f>
+        <v>1</v>
+      </c>
+      <c r="D212" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -5129,10 +5142,10 @@
         <v>279</v>
       </c>
       <c r="B213" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C213">
-        <f t="shared" si="9"/>
+        <f>0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5141,31 +5154,33 @@
         <v>279</v>
       </c>
       <c r="B214" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C214">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D214" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B215" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C215">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="C215:C221" si="9">0+(0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B216" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C216">
         <f t="shared" si="9"/>
@@ -5174,10 +5189,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B217" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C217">
         <f t="shared" si="9"/>
@@ -5186,10 +5201,10 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B218" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C218">
         <f t="shared" si="9"/>
@@ -5198,28 +5213,25 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B219" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C219">
-        <f>1+(0)</f>
-        <v>1</v>
-      </c>
-      <c r="D219" t="s">
-        <v>703</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B220" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C220">
-        <f t="shared" ref="C220:C226" si="10">0+(0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5228,10 +5240,10 @@
         <v>290</v>
       </c>
       <c r="B221" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C221">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5240,11 +5252,14 @@
         <v>290</v>
       </c>
       <c r="B222" t="s">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="C222">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>1+(0)</f>
+        <v>1</v>
+      </c>
+      <c r="D222" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -5252,10 +5267,10 @@
         <v>290</v>
       </c>
       <c r="B223" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C223">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="C223:C229" si="10">0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5264,7 +5279,7 @@
         <v>290</v>
       </c>
       <c r="B224" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C224">
         <f t="shared" si="10"/>
@@ -5276,7 +5291,7 @@
         <v>290</v>
       </c>
       <c r="B225" t="s">
-        <v>297</v>
+        <v>208</v>
       </c>
       <c r="C225">
         <f t="shared" si="10"/>
@@ -5288,7 +5303,7 @@
         <v>290</v>
       </c>
       <c r="B226" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C226">
         <f t="shared" si="10"/>
@@ -5297,69 +5312,64 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B227" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C227">
-        <v>1</v>
-      </c>
-      <c r="D227" t="s">
-        <v>679</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B228" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C228">
-        <f>0+(0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="B229" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C229">
-        <f>1+(0)</f>
-        <v>1</v>
-      </c>
-      <c r="D229" t="s">
-        <v>678</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="B230" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C230">
-        <f>1+(0)</f>
         <v>1</v>
+      </c>
+      <c r="D230" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="B231" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C231">
-        <v>1</v>
-      </c>
-      <c r="D231" t="s">
-        <v>677</v>
+        <f>0+(0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -5367,14 +5377,14 @@
         <v>12</v>
       </c>
       <c r="B232" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C232">
         <f>1+(0)</f>
         <v>1</v>
       </c>
       <c r="D232" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -5382,77 +5392,82 @@
         <v>12</v>
       </c>
       <c r="B233" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C233">
+        <f>1+(0)</f>
         <v>1</v>
-      </c>
-      <c r="D233" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>307</v>
+        <v>12</v>
       </c>
       <c r="B234" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>307</v>
+        <v>12</v>
       </c>
       <c r="B235" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C235">
+        <f>1+(0)</f>
         <v>1</v>
       </c>
       <c r="D235" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>310</v>
+        <v>12</v>
       </c>
       <c r="B236" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C236">
-        <f t="shared" ref="C236:C239" si="11">0+(0)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D236" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B237" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C237">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D237" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B238" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C238">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D238" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -5460,76 +5475,71 @@
         <v>310</v>
       </c>
       <c r="B239" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C239">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="C239:C242" si="11">0+(0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
+        <v>310</v>
+      </c>
+      <c r="B240" t="s">
+        <v>312</v>
+      </c>
+      <c r="C240">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>310</v>
+      </c>
+      <c r="B241" t="s">
+        <v>313</v>
+      </c>
+      <c r="C241">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>310</v>
+      </c>
+      <c r="B242" t="s">
+        <v>314</v>
+      </c>
+      <c r="C242">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
         <v>315</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B243" t="s">
         <v>316</v>
       </c>
-      <c r="C240">
+      <c r="C243">
         <f>1+(0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>315</v>
-      </c>
-      <c r="B241" t="s">
-        <v>317</v>
-      </c>
-      <c r="C241">
-        <f>0+(0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
-        <v>10</v>
-      </c>
-      <c r="B242" t="s">
-        <v>318</v>
-      </c>
-      <c r="C242">
-        <f>1+(0)</f>
-        <v>1</v>
-      </c>
-      <c r="D242" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>10</v>
-      </c>
-      <c r="B243" t="s">
-        <v>319</v>
-      </c>
-      <c r="C243">
-        <f>0+(0)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>10</v>
+        <v>315</v>
       </c>
       <c r="B244" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C244">
-        <v>1</v>
-      </c>
-      <c r="D244" t="s">
-        <v>683</v>
+        <f>0+(0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -5537,13 +5547,14 @@
         <v>10</v>
       </c>
       <c r="B245" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C245">
+        <f>1+(0)</f>
         <v>1</v>
       </c>
       <c r="D245" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -5551,13 +5562,11 @@
         <v>10</v>
       </c>
       <c r="B246" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C246">
-        <v>1</v>
-      </c>
-      <c r="D246" t="s">
-        <v>661</v>
+        <f>0+(0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -5565,10 +5574,13 @@
         <v>10</v>
       </c>
       <c r="B247" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C247">
         <v>1</v>
+      </c>
+      <c r="D247" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -5576,58 +5588,61 @@
         <v>10</v>
       </c>
       <c r="B248" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C248">
-        <f>0+(0)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D248" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>325</v>
+        <v>10</v>
       </c>
       <c r="B249" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C249">
-        <f t="shared" ref="C249:C254" si="12">2+(0)</f>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D249" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B250" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C250">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B251" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C251">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f>0+(0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>50</v>
+        <v>325</v>
       </c>
       <c r="B252" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C252">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="C252:C257" si="12">2+(0)</f>
         <v>2</v>
       </c>
     </row>
@@ -5636,7 +5651,7 @@
         <v>50</v>
       </c>
       <c r="B253" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C253">
         <f t="shared" si="12"/>
@@ -5648,7 +5663,7 @@
         <v>50</v>
       </c>
       <c r="B254" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C254">
         <f t="shared" si="12"/>
@@ -5657,38 +5672,38 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>332</v>
+        <v>50</v>
       </c>
       <c r="B255" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C255">
-        <f>0+(0)</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>332</v>
+        <v>50</v>
       </c>
       <c r="B256" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C256">
-        <f>0+(0)</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>332</v>
+        <v>50</v>
       </c>
       <c r="B257" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C257">
-        <f>0+(0)</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -5696,7 +5711,7 @@
         <v>332</v>
       </c>
       <c r="B258" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C258">
         <f>0+(0)</f>
@@ -5705,79 +5720,82 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
+        <v>332</v>
+      </c>
+      <c r="B259" t="s">
+        <v>334</v>
+      </c>
+      <c r="C259">
+        <f>0+(0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>332</v>
+      </c>
+      <c r="B260" t="s">
+        <v>335</v>
+      </c>
+      <c r="C260">
+        <f>0+(0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>332</v>
+      </c>
+      <c r="B261" t="s">
+        <v>336</v>
+      </c>
+      <c r="C261">
+        <f>0+(0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
         <v>109</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B262" t="s">
         <v>337</v>
       </c>
-      <c r="C259">
+      <c r="C262">
         <f>2+(0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
         <v>109</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B263" t="s">
         <v>338</v>
       </c>
-      <c r="C260">
+      <c r="C263">
         <f>2+(0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
         <v>109</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B264" t="s">
         <v>339</v>
       </c>
-      <c r="C261">
+      <c r="C264">
         <f>2+(0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>340</v>
-      </c>
-      <c r="B262" t="s">
-        <v>341</v>
-      </c>
-      <c r="C262">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>342</v>
-      </c>
-      <c r="B263" t="s">
-        <v>343</v>
-      </c>
-      <c r="C263">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>342</v>
-      </c>
-      <c r="B264" t="s">
-        <v>344</v>
-      </c>
-      <c r="C264">
-        <v>-1</v>
-      </c>
-    </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B265" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="C265">
         <v>-1</v>
@@ -5788,7 +5806,7 @@
         <v>342</v>
       </c>
       <c r="B266" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C266">
         <v>-1</v>
@@ -5799,7 +5817,7 @@
         <v>342</v>
       </c>
       <c r="B267" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C267">
         <v>-1</v>
@@ -5810,7 +5828,7 @@
         <v>342</v>
       </c>
       <c r="B268" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C268">
         <v>-1</v>
@@ -5821,7 +5839,7 @@
         <v>342</v>
       </c>
       <c r="B269" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C269">
         <v>-1</v>
@@ -5832,7 +5850,7 @@
         <v>342</v>
       </c>
       <c r="B270" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C270">
         <v>-1</v>
@@ -5843,7 +5861,7 @@
         <v>342</v>
       </c>
       <c r="B271" t="s">
-        <v>349</v>
+        <v>303</v>
       </c>
       <c r="C271">
         <v>-1</v>
@@ -5854,7 +5872,7 @@
         <v>342</v>
       </c>
       <c r="B272" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C272">
         <v>-1</v>
@@ -5865,7 +5883,7 @@
         <v>342</v>
       </c>
       <c r="B273" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C273">
         <v>-1</v>
@@ -5873,24 +5891,21 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B274" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C274">
         <v>-1</v>
-      </c>
-      <c r="D274" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="B275" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C275">
         <v>-1</v>
@@ -5898,10 +5913,10 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="B276" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C276">
         <v>-1</v>
@@ -5909,13 +5924,16 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B277" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C277">
         <v>-1</v>
+      </c>
+      <c r="D277" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
@@ -5923,13 +5941,10 @@
         <v>354</v>
       </c>
       <c r="B278" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C278">
-        <v>1</v>
-      </c>
-      <c r="D278" t="s">
-        <v>663</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
@@ -5937,7 +5952,7 @@
         <v>354</v>
       </c>
       <c r="B279" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C279">
         <v>-1</v>
@@ -5948,7 +5963,7 @@
         <v>354</v>
       </c>
       <c r="B280" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C280">
         <v>-1</v>
@@ -5956,54 +5971,52 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B281" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C281">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D281" t="s">
-        <v>716</v>
+        <v>663</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B282" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C282">
         <v>-1</v>
-      </c>
-      <c r="D282" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B283" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C283">
-        <f t="shared" ref="C283:C301" si="13">0+(0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B284" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="C284">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="D284" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -6011,11 +6024,13 @@
         <v>363</v>
       </c>
       <c r="B285" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C285">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="D285" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -6023,13 +6038,11 @@
         <v>363</v>
       </c>
       <c r="B286" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="C286">
-        <v>-1</v>
-      </c>
-      <c r="D286" t="s">
-        <v>717</v>
+        <f t="shared" ref="C286:C304" si="13">0+(0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -6037,13 +6050,11 @@
         <v>363</v>
       </c>
       <c r="B287" t="s">
-        <v>715</v>
+        <v>319</v>
       </c>
       <c r="C287">
-        <v>-1</v>
-      </c>
-      <c r="D287" t="s">
-        <v>702</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -6051,200 +6062,207 @@
         <v>363</v>
       </c>
       <c r="B288" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C288">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>363</v>
       </c>
       <c r="B289" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="C289">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+      <c r="D289" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>363</v>
       </c>
       <c r="B290" t="s">
-        <v>369</v>
+        <v>715</v>
       </c>
       <c r="C290">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+      <c r="D290" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>363</v>
       </c>
       <c r="B291" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C291">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>363</v>
       </c>
       <c r="B292" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C292">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>363</v>
       </c>
       <c r="B293" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C293">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>363</v>
       </c>
       <c r="B294" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C294">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>363</v>
       </c>
       <c r="B295" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C295">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>363</v>
       </c>
       <c r="B296" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C296">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>363</v>
       </c>
       <c r="B297" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C297">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>363</v>
       </c>
       <c r="B298" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C298">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>363</v>
       </c>
       <c r="B299" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C299">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>363</v>
       </c>
       <c r="B300" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C300">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>363</v>
       </c>
       <c r="B301" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C301">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="B302" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C302">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="B303" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C303">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="B304" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C304">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -6252,7 +6270,7 @@
         <v>381</v>
       </c>
       <c r="B305" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C305">
         <v>-1</v>
@@ -6263,7 +6281,7 @@
         <v>381</v>
       </c>
       <c r="B306" t="s">
-        <v>22</v>
+        <v>383</v>
       </c>
       <c r="C306">
         <v>-1</v>
@@ -6274,7 +6292,7 @@
         <v>381</v>
       </c>
       <c r="B307" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C307">
         <v>-1</v>
@@ -6285,7 +6303,7 @@
         <v>381</v>
       </c>
       <c r="B308" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C308">
         <v>-1</v>
@@ -6296,7 +6314,7 @@
         <v>381</v>
       </c>
       <c r="B309" t="s">
-        <v>388</v>
+        <v>22</v>
       </c>
       <c r="C309">
         <v>-1</v>
@@ -6307,7 +6325,7 @@
         <v>381</v>
       </c>
       <c r="B310" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C310">
         <v>-1</v>
@@ -6318,7 +6336,7 @@
         <v>381</v>
       </c>
       <c r="B311" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C311">
         <v>-1</v>
@@ -6329,7 +6347,7 @@
         <v>381</v>
       </c>
       <c r="B312" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C312">
         <v>-1</v>
@@ -6340,7 +6358,7 @@
         <v>381</v>
       </c>
       <c r="B313" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C313">
         <v>-1</v>
@@ -6351,7 +6369,7 @@
         <v>381</v>
       </c>
       <c r="B314" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C314">
         <v>-1</v>
@@ -6362,7 +6380,7 @@
         <v>381</v>
       </c>
       <c r="B315" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C315">
         <v>-1</v>
@@ -6373,7 +6391,7 @@
         <v>381</v>
       </c>
       <c r="B316" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C316">
         <v>-1</v>
@@ -6384,7 +6402,7 @@
         <v>381</v>
       </c>
       <c r="B317" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C317">
         <v>-1</v>
@@ -6395,7 +6413,7 @@
         <v>381</v>
       </c>
       <c r="B318" t="s">
-        <v>362</v>
+        <v>394</v>
       </c>
       <c r="C318">
         <v>-1</v>
@@ -6406,7 +6424,7 @@
         <v>381</v>
       </c>
       <c r="B319" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C319">
         <v>-1</v>
@@ -6417,7 +6435,7 @@
         <v>381</v>
       </c>
       <c r="B320" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C320">
         <v>-1</v>
@@ -6428,7 +6446,7 @@
         <v>381</v>
       </c>
       <c r="B321" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="C321">
         <v>-1</v>
@@ -6439,7 +6457,7 @@
         <v>381</v>
       </c>
       <c r="B322" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C322">
         <v>-1</v>
@@ -6450,7 +6468,7 @@
         <v>381</v>
       </c>
       <c r="B323" t="s">
-        <v>328</v>
+        <v>398</v>
       </c>
       <c r="C323">
         <v>-1</v>
@@ -6461,7 +6479,7 @@
         <v>381</v>
       </c>
       <c r="B324" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C324">
         <v>-1</v>
@@ -6472,7 +6490,7 @@
         <v>381</v>
       </c>
       <c r="B325" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C325">
         <v>-1</v>
@@ -6483,7 +6501,7 @@
         <v>381</v>
       </c>
       <c r="B326" t="s">
-        <v>403</v>
+        <v>328</v>
       </c>
       <c r="C326">
         <v>-1</v>
@@ -6494,7 +6512,7 @@
         <v>381</v>
       </c>
       <c r="B327" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C327">
         <v>-1</v>
@@ -6505,7 +6523,7 @@
         <v>381</v>
       </c>
       <c r="B328" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C328">
         <v>-1</v>
@@ -6516,7 +6534,7 @@
         <v>381</v>
       </c>
       <c r="B329" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C329">
         <v>-1</v>
@@ -6527,7 +6545,7 @@
         <v>381</v>
       </c>
       <c r="B330" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C330">
         <v>-1</v>
@@ -6538,7 +6556,7 @@
         <v>381</v>
       </c>
       <c r="B331" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C331">
         <v>-1</v>
@@ -6549,7 +6567,7 @@
         <v>381</v>
       </c>
       <c r="B332" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C332">
         <v>-1</v>
@@ -6560,7 +6578,7 @@
         <v>381</v>
       </c>
       <c r="B333" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C333">
         <v>-1</v>
@@ -6571,7 +6589,7 @@
         <v>381</v>
       </c>
       <c r="B334" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C334">
         <v>-1</v>
@@ -6582,7 +6600,7 @@
         <v>381</v>
       </c>
       <c r="B335" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C335">
         <v>-1</v>
@@ -6593,7 +6611,7 @@
         <v>381</v>
       </c>
       <c r="B336" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C336">
         <v>-1</v>
@@ -6604,7 +6622,7 @@
         <v>381</v>
       </c>
       <c r="B337" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C337">
         <v>-1</v>
@@ -6615,7 +6633,7 @@
         <v>381</v>
       </c>
       <c r="B338" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C338">
         <v>-1</v>
@@ -6626,7 +6644,7 @@
         <v>381</v>
       </c>
       <c r="B339" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C339">
         <v>-1</v>
@@ -6637,7 +6655,7 @@
         <v>381</v>
       </c>
       <c r="B340" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C340">
         <v>-1</v>
@@ -6648,7 +6666,7 @@
         <v>381</v>
       </c>
       <c r="B341" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C341">
         <v>-1</v>
@@ -6659,7 +6677,7 @@
         <v>381</v>
       </c>
       <c r="B342" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C342">
         <v>-1</v>
@@ -6670,7 +6688,7 @@
         <v>381</v>
       </c>
       <c r="B343" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C343">
         <v>-1</v>
@@ -6681,7 +6699,7 @@
         <v>381</v>
       </c>
       <c r="B344" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C344">
         <v>-1</v>
@@ -6692,7 +6710,7 @@
         <v>381</v>
       </c>
       <c r="B345" t="s">
-        <v>301</v>
+        <v>419</v>
       </c>
       <c r="C345">
         <v>-1</v>
@@ -6703,7 +6721,7 @@
         <v>381</v>
       </c>
       <c r="B346" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C346">
         <v>-1</v>
@@ -6714,7 +6732,7 @@
         <v>381</v>
       </c>
       <c r="B347" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C347">
         <v>-1</v>
@@ -6725,7 +6743,7 @@
         <v>381</v>
       </c>
       <c r="B348" t="s">
-        <v>424</v>
+        <v>301</v>
       </c>
       <c r="C348">
         <v>-1</v>
@@ -6736,7 +6754,7 @@
         <v>381</v>
       </c>
       <c r="B349" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C349">
         <v>-1</v>
@@ -6747,7 +6765,7 @@
         <v>381</v>
       </c>
       <c r="B350" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C350">
         <v>-1</v>
@@ -6758,7 +6776,7 @@
         <v>381</v>
       </c>
       <c r="B351" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C351">
         <v>-1</v>
@@ -6769,7 +6787,7 @@
         <v>381</v>
       </c>
       <c r="B352" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C352">
         <v>-1</v>
@@ -6780,7 +6798,7 @@
         <v>381</v>
       </c>
       <c r="B353" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C353">
         <v>-1</v>
@@ -6791,7 +6809,7 @@
         <v>381</v>
       </c>
       <c r="B354" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C354">
         <v>-1</v>
@@ -6802,7 +6820,7 @@
         <v>381</v>
       </c>
       <c r="B355" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C355">
         <v>-1</v>
@@ -6810,151 +6828,141 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>432</v>
+        <v>381</v>
       </c>
       <c r="B356" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C356">
-        <f t="shared" ref="C356:C360" si="14">0+(0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>434</v>
+        <v>381</v>
       </c>
       <c r="B357" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C357">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="D357" t="s">
-        <v>699</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>436</v>
+        <v>381</v>
       </c>
       <c r="B358" t="s">
-        <v>301</v>
+        <v>431</v>
       </c>
       <c r="C358">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B359" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C359">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="C359:C362" si="14">0+(0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B360" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C360">
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="D360" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
+        <v>436</v>
+      </c>
+      <c r="B361" t="s">
+        <v>301</v>
+      </c>
+      <c r="C361">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>436</v>
+      </c>
+      <c r="B362" t="s">
+        <v>437</v>
+      </c>
+      <c r="C362">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
         <v>438</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B363" t="s">
+        <v>439</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>438</v>
+      </c>
+      <c r="B364" t="s">
         <v>440</v>
       </c>
-      <c r="C361">
+      <c r="C364">
         <f>2+(0)</f>
         <v>2</v>
       </c>
-      <c r="D361" t="s">
+      <c r="D364" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A362" t="s">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
         <v>438</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B365" t="s">
         <v>441</v>
       </c>
-      <c r="C362">
+      <c r="C365">
         <f>1+(0)</f>
         <v>1</v>
       </c>
-      <c r="D362" t="s">
+      <c r="D365" t="s">
         <v>655</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A363" t="s">
-        <v>442</v>
-      </c>
-      <c r="B363" t="s">
-        <v>443</v>
-      </c>
-      <c r="C363">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A364" t="s">
-        <v>444</v>
-      </c>
-      <c r="B364" t="s">
-        <v>445</v>
-      </c>
-      <c r="C364">
-        <v>0</v>
-      </c>
-      <c r="D364" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A365" t="s">
-        <v>444</v>
-      </c>
-      <c r="B365" t="s">
-        <v>446</v>
-      </c>
-      <c r="C365">
-        <v>1</v>
-      </c>
-      <c r="D365" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B366" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C366">
-        <f>1+(0)</f>
-        <v>1</v>
-      </c>
-      <c r="D366" t="s">
-        <v>658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
@@ -6962,11 +6970,13 @@
         <v>444</v>
       </c>
       <c r="B367" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C367">
-        <f t="shared" ref="C367:C372" si="15">0+(0)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D367" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
@@ -6974,11 +6984,13 @@
         <v>444</v>
       </c>
       <c r="B368" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C368">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D368" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
@@ -6986,11 +6998,14 @@
         <v>444</v>
       </c>
       <c r="B369" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C369">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f>1+(0)</f>
+        <v>1</v>
+      </c>
+      <c r="D369" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
@@ -6998,10 +7013,10 @@
         <v>444</v>
       </c>
       <c r="B370" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C370">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="C370:C375" si="15">0+(0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7010,7 +7025,7 @@
         <v>444</v>
       </c>
       <c r="B371" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C371">
         <f t="shared" si="15"/>
@@ -7022,7 +7037,7 @@
         <v>444</v>
       </c>
       <c r="B372" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C372">
         <f t="shared" si="15"/>
@@ -7031,16 +7046,14 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B373" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C373">
-        <v>2</v>
-      </c>
-      <c r="D373" t="s">
-        <v>662</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
@@ -7048,10 +7061,10 @@
         <v>444</v>
       </c>
       <c r="B374" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C374">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -7060,23 +7073,25 @@
         <v>444</v>
       </c>
       <c r="B375" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C375">
-        <f>0+(0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="B376" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C376">
-        <f>0+(0)</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D376" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
@@ -7084,7 +7099,7 @@
         <v>444</v>
       </c>
       <c r="B377" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C377">
         <f>0+(0)</f>
@@ -7096,13 +7111,11 @@
         <v>444</v>
       </c>
       <c r="B378" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C378">
-        <v>2</v>
-      </c>
-      <c r="D378" t="s">
-        <v>702</v>
+        <f>0+(0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
@@ -7110,13 +7123,11 @@
         <v>444</v>
       </c>
       <c r="B379" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C379">
-        <v>2</v>
-      </c>
-      <c r="D379" t="s">
-        <v>702</v>
+        <f>0+(0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
@@ -7124,13 +7135,11 @@
         <v>444</v>
       </c>
       <c r="B380" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C380">
-        <v>2</v>
-      </c>
-      <c r="D380" t="s">
-        <v>702</v>
+        <f>0+(0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
@@ -7138,10 +7147,9 @@
         <v>444</v>
       </c>
       <c r="B381" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C381">
-        <f>2+(0)</f>
         <v>2</v>
       </c>
       <c r="D381" t="s">
@@ -7153,7 +7161,7 @@
         <v>444</v>
       </c>
       <c r="B382" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C382">
         <v>2</v>
@@ -7167,13 +7175,13 @@
         <v>444</v>
       </c>
       <c r="B383" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C383">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D383" t="s">
-        <v>682</v>
+        <v>702</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
@@ -7181,9 +7189,10 @@
         <v>444</v>
       </c>
       <c r="B384" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C384">
+        <f>2+(0)</f>
         <v>2</v>
       </c>
       <c r="D384" t="s">
@@ -7195,10 +7204,9 @@
         <v>444</v>
       </c>
       <c r="B385" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C385">
-        <f>2+(0)</f>
         <v>2</v>
       </c>
       <c r="D385" t="s">
@@ -7210,13 +7218,13 @@
         <v>444</v>
       </c>
       <c r="B386" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C386">
         <v>1</v>
       </c>
       <c r="D386" t="s">
-        <v>656</v>
+        <v>682</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
@@ -7224,10 +7232,9 @@
         <v>444</v>
       </c>
       <c r="B387" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C387">
-        <f>2+(0)</f>
         <v>2</v>
       </c>
       <c r="D387" t="s">
@@ -7239,9 +7246,10 @@
         <v>444</v>
       </c>
       <c r="B388" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C388">
+        <f>2+(0)</f>
         <v>2</v>
       </c>
       <c r="D388" t="s">
@@ -7253,47 +7261,57 @@
         <v>444</v>
       </c>
       <c r="B389" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C389">
+        <v>1</v>
+      </c>
+      <c r="D389" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>444</v>
+      </c>
+      <c r="B390" t="s">
+        <v>469</v>
+      </c>
+      <c r="C390">
         <f>2+(0)</f>
         <v>2</v>
       </c>
-      <c r="D389" t="s">
+      <c r="D390" t="s">
         <v>702</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A390" t="s">
-        <v>472</v>
-      </c>
-      <c r="B390" t="s">
-        <v>364</v>
-      </c>
-      <c r="C390">
-        <v>-1</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="B391" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C391">
-        <v>-1</v>
+        <v>2</v>
+      </c>
+      <c r="D391" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="B392" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C392">
-        <v>-1</v>
+        <f>2+(0)</f>
+        <v>2</v>
+      </c>
+      <c r="D392" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
@@ -7301,7 +7319,7 @@
         <v>472</v>
       </c>
       <c r="B393" t="s">
-        <v>475</v>
+        <v>364</v>
       </c>
       <c r="C393">
         <v>-1</v>
@@ -7312,7 +7330,7 @@
         <v>472</v>
       </c>
       <c r="B394" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C394">
         <v>-1</v>
@@ -7323,7 +7341,7 @@
         <v>472</v>
       </c>
       <c r="B395" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C395">
         <v>-1</v>
@@ -7334,13 +7352,10 @@
         <v>472</v>
       </c>
       <c r="B396" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C396">
         <v>-1</v>
-      </c>
-      <c r="D396" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -7348,7 +7363,7 @@
         <v>472</v>
       </c>
       <c r="B397" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C397">
         <v>-1</v>
@@ -7359,7 +7374,7 @@
         <v>472</v>
       </c>
       <c r="B398" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C398">
         <v>-1</v>
@@ -7370,10 +7385,13 @@
         <v>472</v>
       </c>
       <c r="B399" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C399">
         <v>-1</v>
+      </c>
+      <c r="D399" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
@@ -7381,7 +7399,7 @@
         <v>472</v>
       </c>
       <c r="B400" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C400">
         <v>-1</v>
@@ -7392,7 +7410,7 @@
         <v>472</v>
       </c>
       <c r="B401" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C401">
         <v>-1</v>
@@ -7403,7 +7421,7 @@
         <v>472</v>
       </c>
       <c r="B402" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C402">
         <v>-1</v>
@@ -7414,7 +7432,7 @@
         <v>472</v>
       </c>
       <c r="B403" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C403">
         <v>-1</v>
@@ -7425,7 +7443,7 @@
         <v>472</v>
       </c>
       <c r="B404" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C404">
         <v>-1</v>
@@ -7436,7 +7454,7 @@
         <v>472</v>
       </c>
       <c r="B405" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C405">
         <v>-1</v>
@@ -7447,7 +7465,7 @@
         <v>472</v>
       </c>
       <c r="B406" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C406">
         <v>-1</v>
@@ -7455,10 +7473,10 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="B407" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C407">
         <v>-1</v>
@@ -7466,10 +7484,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="B408" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C408">
         <v>-1</v>
@@ -7477,10 +7495,10 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="B409" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C409">
         <v>-1</v>
@@ -7488,10 +7506,10 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B410" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C410">
         <v>-1</v>
@@ -7502,7 +7520,7 @@
         <v>491</v>
       </c>
       <c r="B411" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C411">
         <v>-1</v>
@@ -7513,7 +7531,7 @@
         <v>491</v>
       </c>
       <c r="B412" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C412">
         <v>-1</v>
@@ -7524,7 +7542,7 @@
         <v>491</v>
       </c>
       <c r="B413" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C413">
         <v>-1</v>
@@ -7532,10 +7550,10 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B414" t="s">
-        <v>233</v>
+        <v>495</v>
       </c>
       <c r="C414">
         <v>-1</v>
@@ -7543,10 +7561,10 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B415" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C415">
         <v>-1</v>
@@ -7554,10 +7572,10 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B416" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C416">
         <v>-1</v>
@@ -7568,7 +7586,7 @@
         <v>498</v>
       </c>
       <c r="B417" t="s">
-        <v>501</v>
+        <v>233</v>
       </c>
       <c r="C417">
         <v>-1</v>
@@ -7579,7 +7597,7 @@
         <v>498</v>
       </c>
       <c r="B418" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C418">
         <v>-1</v>
@@ -7590,7 +7608,7 @@
         <v>498</v>
       </c>
       <c r="B419" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C419">
         <v>-1</v>
@@ -7601,7 +7619,7 @@
         <v>498</v>
       </c>
       <c r="B420" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C420">
         <v>-1</v>
@@ -7612,7 +7630,7 @@
         <v>498</v>
       </c>
       <c r="B421" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C421">
         <v>-1</v>
@@ -7623,7 +7641,7 @@
         <v>498</v>
       </c>
       <c r="B422" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C422">
         <v>-1</v>
@@ -7634,7 +7652,7 @@
         <v>498</v>
       </c>
       <c r="B423" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C423">
         <v>-1</v>
@@ -7645,7 +7663,7 @@
         <v>498</v>
       </c>
       <c r="B424" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C424">
         <v>-1</v>
@@ -7653,10 +7671,10 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="B425" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C425">
         <v>-1</v>
@@ -7664,10 +7682,10 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="B426" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C426">
         <v>-1</v>
@@ -7675,10 +7693,10 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="B427" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C427">
         <v>-1</v>
@@ -7689,7 +7707,7 @@
         <v>509</v>
       </c>
       <c r="B428" t="s">
-        <v>465</v>
+        <v>510</v>
       </c>
       <c r="C428">
         <v>-1</v>
@@ -7697,10 +7715,10 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B429" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C429">
         <v>-1</v>
@@ -7708,10 +7726,10 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B430" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C430">
         <v>-1</v>
@@ -7719,10 +7737,10 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B431" t="s">
-        <v>516</v>
+        <v>465</v>
       </c>
       <c r="C431">
         <v>-1</v>
@@ -7730,10 +7748,10 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B432" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C432">
         <v>-1</v>
@@ -7741,10 +7759,10 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B433" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C433">
         <v>-1</v>
@@ -7752,10 +7770,10 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B434" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C434">
         <v>-1</v>
@@ -7763,10 +7781,10 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B435" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C435">
         <v>-1</v>
@@ -7777,7 +7795,7 @@
         <v>519</v>
       </c>
       <c r="B436" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C436">
         <v>-1</v>
@@ -7788,7 +7806,7 @@
         <v>519</v>
       </c>
       <c r="B437" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C437">
         <v>-1</v>
@@ -7799,7 +7817,7 @@
         <v>519</v>
       </c>
       <c r="B438" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C438">
         <v>-1</v>
@@ -7810,7 +7828,7 @@
         <v>519</v>
       </c>
       <c r="B439" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C439">
         <v>-1</v>
@@ -7821,7 +7839,7 @@
         <v>519</v>
       </c>
       <c r="B440" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C440">
         <v>-1</v>
@@ -7832,7 +7850,7 @@
         <v>519</v>
       </c>
       <c r="B441" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C441">
         <v>-1</v>
@@ -7843,7 +7861,7 @@
         <v>519</v>
       </c>
       <c r="B442" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C442">
         <v>-1</v>
@@ -7854,7 +7872,7 @@
         <v>519</v>
       </c>
       <c r="B443" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C443">
         <v>-1</v>
@@ -7865,7 +7883,7 @@
         <v>519</v>
       </c>
       <c r="B444" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C444">
         <v>-1</v>
@@ -7876,7 +7894,7 @@
         <v>519</v>
       </c>
       <c r="B445" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C445">
         <v>-1</v>
@@ -7887,7 +7905,7 @@
         <v>519</v>
       </c>
       <c r="B446" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C446">
         <v>-1</v>
@@ -7898,7 +7916,7 @@
         <v>519</v>
       </c>
       <c r="B447" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C447">
         <v>-1</v>
@@ -7909,7 +7927,7 @@
         <v>519</v>
       </c>
       <c r="B448" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C448">
         <v>-1</v>
@@ -7920,7 +7938,7 @@
         <v>519</v>
       </c>
       <c r="B449" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C449">
         <v>-1</v>
@@ -7931,7 +7949,7 @@
         <v>519</v>
       </c>
       <c r="B450" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C450">
         <v>-1</v>
@@ -7942,7 +7960,7 @@
         <v>519</v>
       </c>
       <c r="B451" t="s">
-        <v>53</v>
+        <v>535</v>
       </c>
       <c r="C451">
         <v>-1</v>
@@ -7953,7 +7971,7 @@
         <v>519</v>
       </c>
       <c r="B452" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C452">
         <v>-1</v>
@@ -7964,7 +7982,7 @@
         <v>519</v>
       </c>
       <c r="B453" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C453">
         <v>-1</v>
@@ -7972,10 +7990,10 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="B454" t="s">
-        <v>541</v>
+        <v>53</v>
       </c>
       <c r="C454">
         <v>-1</v>
@@ -7983,10 +8001,10 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="B455" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C455">
         <v>-1</v>
@@ -7994,10 +8012,10 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="B456" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C456">
         <v>-1</v>
@@ -8008,7 +8026,7 @@
         <v>540</v>
       </c>
       <c r="B457" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C457">
         <v>-1</v>
@@ -8019,7 +8037,7 @@
         <v>540</v>
       </c>
       <c r="B458" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C458">
         <v>-1</v>
@@ -8030,7 +8048,7 @@
         <v>540</v>
       </c>
       <c r="B459" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C459">
         <v>-1</v>
@@ -8041,7 +8059,7 @@
         <v>540</v>
       </c>
       <c r="B460" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C460">
         <v>-1</v>
@@ -8052,7 +8070,7 @@
         <v>540</v>
       </c>
       <c r="B461" t="s">
-        <v>512</v>
+        <v>545</v>
       </c>
       <c r="C461">
         <v>-1</v>
@@ -8063,7 +8081,7 @@
         <v>540</v>
       </c>
       <c r="B462" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C462">
         <v>-1</v>
@@ -8074,7 +8092,7 @@
         <v>540</v>
       </c>
       <c r="B463" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C463">
         <v>-1</v>
@@ -8082,10 +8100,10 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="B464" t="s">
-        <v>551</v>
+        <v>512</v>
       </c>
       <c r="C464">
         <v>-1</v>
@@ -8093,10 +8111,10 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="B465" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C465">
         <v>-1</v>
@@ -8104,10 +8122,10 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="B466" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C466">
         <v>-1</v>
@@ -8115,10 +8133,10 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B467" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C467">
         <v>-1</v>
@@ -8126,10 +8144,10 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B468" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C468">
         <v>-1</v>
@@ -8137,10 +8155,10 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B469" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C469">
         <v>-1</v>
@@ -8151,7 +8169,7 @@
         <v>555</v>
       </c>
       <c r="B470" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C470">
         <v>-1</v>
@@ -8162,7 +8180,7 @@
         <v>555</v>
       </c>
       <c r="B471" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C471">
         <v>-1</v>
@@ -8173,7 +8191,7 @@
         <v>555</v>
       </c>
       <c r="B472" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C472">
         <v>-1</v>
@@ -8184,7 +8202,7 @@
         <v>555</v>
       </c>
       <c r="B473" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C473">
         <v>-1</v>
@@ -8195,7 +8213,7 @@
         <v>555</v>
       </c>
       <c r="B474" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C474">
         <v>-1</v>
@@ -8203,10 +8221,10 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="B475" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C475">
         <v>-1</v>
@@ -8217,7 +8235,7 @@
         <v>555</v>
       </c>
       <c r="B476" t="s">
-        <v>380</v>
+        <v>562</v>
       </c>
       <c r="C476">
         <v>-1</v>
@@ -8228,7 +8246,7 @@
         <v>555</v>
       </c>
       <c r="B477" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C477">
         <v>-1</v>
@@ -8236,10 +8254,10 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="B478" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C478">
         <v>-1</v>
@@ -8250,7 +8268,7 @@
         <v>555</v>
       </c>
       <c r="B479" t="s">
-        <v>568</v>
+        <v>380</v>
       </c>
       <c r="C479">
         <v>-1</v>
@@ -8261,7 +8279,7 @@
         <v>555</v>
       </c>
       <c r="B480" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C480">
         <v>-1</v>
@@ -8272,7 +8290,7 @@
         <v>555</v>
       </c>
       <c r="B481" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C481">
         <v>-1</v>
@@ -8283,7 +8301,7 @@
         <v>555</v>
       </c>
       <c r="B482" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C482">
         <v>-1</v>
@@ -8294,7 +8312,7 @@
         <v>555</v>
       </c>
       <c r="B483" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C483">
         <v>-1</v>
@@ -8302,10 +8320,10 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="B484" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C484">
         <v>-1</v>
@@ -8316,7 +8334,7 @@
         <v>555</v>
       </c>
       <c r="B485" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C485">
         <v>-1</v>
@@ -8327,7 +8345,7 @@
         <v>555</v>
       </c>
       <c r="B486" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C486">
         <v>-1</v>
@@ -8335,10 +8353,10 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="B487" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C487">
         <v>-1</v>
@@ -8349,7 +8367,7 @@
         <v>555</v>
       </c>
       <c r="B488" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C488">
         <v>-1</v>
@@ -8360,7 +8378,7 @@
         <v>555</v>
       </c>
       <c r="B489" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C489">
         <v>-1</v>
@@ -8371,7 +8389,7 @@
         <v>555</v>
       </c>
       <c r="B490" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C490">
         <v>-1</v>
@@ -8382,7 +8400,7 @@
         <v>555</v>
       </c>
       <c r="B491" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C491">
         <v>-1</v>
@@ -8393,7 +8411,7 @@
         <v>555</v>
       </c>
       <c r="B492" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C492">
         <v>-1</v>
@@ -8404,7 +8422,7 @@
         <v>555</v>
       </c>
       <c r="B493" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C493">
         <v>-1</v>
@@ -8415,7 +8433,7 @@
         <v>555</v>
       </c>
       <c r="B494" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C494">
         <v>-1</v>
@@ -8426,7 +8444,7 @@
         <v>555</v>
       </c>
       <c r="B495" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C495">
         <v>-1</v>
@@ -8437,7 +8455,7 @@
         <v>555</v>
       </c>
       <c r="B496" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C496">
         <v>-1</v>
@@ -8448,7 +8466,7 @@
         <v>555</v>
       </c>
       <c r="B497" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C497">
         <v>-1</v>
@@ -8459,7 +8477,7 @@
         <v>555</v>
       </c>
       <c r="B498" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C498">
         <v>-1</v>
@@ -8470,7 +8488,7 @@
         <v>555</v>
       </c>
       <c r="B499" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C499">
         <v>-1</v>
@@ -8481,7 +8499,7 @@
         <v>555</v>
       </c>
       <c r="B500" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C500">
         <v>-1</v>
@@ -8492,7 +8510,7 @@
         <v>555</v>
       </c>
       <c r="B501" t="s">
-        <v>450</v>
+        <v>587</v>
       </c>
       <c r="C501">
         <v>-1</v>
@@ -8503,7 +8521,7 @@
         <v>555</v>
       </c>
       <c r="B502" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C502">
         <v>-1</v>
@@ -8511,10 +8529,10 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="B503" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C503">
         <v>-1</v>
@@ -8522,10 +8540,10 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="B504" t="s">
-        <v>593</v>
+        <v>450</v>
       </c>
       <c r="C504">
         <v>-1</v>
@@ -8533,10 +8551,10 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="B505" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C505">
         <v>-1</v>
@@ -8547,7 +8565,7 @@
         <v>591</v>
       </c>
       <c r="B506" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C506">
         <v>-1</v>
@@ -8558,7 +8576,7 @@
         <v>591</v>
       </c>
       <c r="B507" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C507">
         <v>-1</v>
@@ -8569,7 +8587,7 @@
         <v>591</v>
       </c>
       <c r="B508" t="s">
-        <v>53</v>
+        <v>594</v>
       </c>
       <c r="C508">
         <v>-1</v>
@@ -8580,7 +8598,7 @@
         <v>591</v>
       </c>
       <c r="B509" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C509">
         <v>-1</v>
@@ -8591,7 +8609,7 @@
         <v>591</v>
       </c>
       <c r="B510" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C510">
         <v>-1</v>
@@ -8602,7 +8620,7 @@
         <v>591</v>
       </c>
       <c r="B511" t="s">
-        <v>599</v>
+        <v>53</v>
       </c>
       <c r="C511">
         <v>-1</v>
@@ -8613,7 +8631,7 @@
         <v>591</v>
       </c>
       <c r="B512" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C512">
         <v>-1</v>
@@ -8624,7 +8642,7 @@
         <v>591</v>
       </c>
       <c r="B513" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C513">
         <v>-1</v>
@@ -8635,7 +8653,7 @@
         <v>591</v>
       </c>
       <c r="B514" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C514">
         <v>-1</v>
@@ -8646,7 +8664,7 @@
         <v>591</v>
       </c>
       <c r="B515" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C515">
         <v>-1</v>
@@ -8657,7 +8675,7 @@
         <v>591</v>
       </c>
       <c r="B516" t="s">
-        <v>202</v>
+        <v>601</v>
       </c>
       <c r="C516">
         <v>-1</v>
@@ -8668,7 +8686,7 @@
         <v>591</v>
       </c>
       <c r="B517" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C517">
         <v>-1</v>
@@ -8679,7 +8697,7 @@
         <v>591</v>
       </c>
       <c r="B518" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C518">
         <v>-1</v>
@@ -8690,7 +8708,7 @@
         <v>591</v>
       </c>
       <c r="B519" t="s">
-        <v>606</v>
+        <v>202</v>
       </c>
       <c r="C519">
         <v>-1</v>
@@ -8701,7 +8719,7 @@
         <v>591</v>
       </c>
       <c r="B520" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C520">
         <v>-1</v>
@@ -8712,7 +8730,7 @@
         <v>591</v>
       </c>
       <c r="B521" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C521">
         <v>-1</v>
@@ -8723,7 +8741,7 @@
         <v>591</v>
       </c>
       <c r="B522" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C522">
         <v>-1</v>
@@ -8734,7 +8752,7 @@
         <v>591</v>
       </c>
       <c r="B523" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C523">
         <v>-1</v>
@@ -8745,7 +8763,7 @@
         <v>591</v>
       </c>
       <c r="B524" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C524">
         <v>-1</v>
@@ -8756,7 +8774,7 @@
         <v>591</v>
       </c>
       <c r="B525" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C525">
         <v>-1</v>
@@ -8767,7 +8785,7 @@
         <v>591</v>
       </c>
       <c r="B526" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C526">
         <v>-1</v>
@@ -8778,7 +8796,7 @@
         <v>591</v>
       </c>
       <c r="B527" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C527">
         <v>-1</v>
@@ -8789,7 +8807,7 @@
         <v>591</v>
       </c>
       <c r="B528" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C528">
         <v>-1</v>
@@ -8800,7 +8818,7 @@
         <v>591</v>
       </c>
       <c r="B529" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C529">
         <v>-1</v>
@@ -8811,7 +8829,7 @@
         <v>591</v>
       </c>
       <c r="B530" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C530">
         <v>-1</v>
@@ -8822,7 +8840,7 @@
         <v>591</v>
       </c>
       <c r="B531" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C531">
         <v>-1</v>
@@ -8833,7 +8851,7 @@
         <v>591</v>
       </c>
       <c r="B532" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C532">
         <v>-1</v>
@@ -8844,7 +8862,7 @@
         <v>591</v>
       </c>
       <c r="B533" t="s">
-        <v>500</v>
+        <v>617</v>
       </c>
       <c r="C533">
         <v>-1</v>
@@ -8855,7 +8873,7 @@
         <v>591</v>
       </c>
       <c r="B534" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C534">
         <v>-1</v>
@@ -8866,7 +8884,7 @@
         <v>591</v>
       </c>
       <c r="B535" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C535">
         <v>-1</v>
@@ -8877,7 +8895,7 @@
         <v>591</v>
       </c>
       <c r="B536" t="s">
-        <v>622</v>
+        <v>500</v>
       </c>
       <c r="C536">
         <v>-1</v>
@@ -8888,7 +8906,7 @@
         <v>591</v>
       </c>
       <c r="B537" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C537">
         <v>-1</v>
@@ -8899,7 +8917,7 @@
         <v>591</v>
       </c>
       <c r="B538" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C538">
         <v>-1</v>
@@ -8910,7 +8928,7 @@
         <v>591</v>
       </c>
       <c r="B539" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C539">
         <v>-1</v>
@@ -8921,7 +8939,7 @@
         <v>591</v>
       </c>
       <c r="B540" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C540">
         <v>-1</v>
@@ -8932,7 +8950,7 @@
         <v>591</v>
       </c>
       <c r="B541" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C541">
         <v>-1</v>
@@ -8943,7 +8961,7 @@
         <v>591</v>
       </c>
       <c r="B542" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C542">
         <v>-1</v>
@@ -8954,7 +8972,7 @@
         <v>591</v>
       </c>
       <c r="B543" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C543">
         <v>-1</v>
@@ -8965,7 +8983,7 @@
         <v>591</v>
       </c>
       <c r="B544" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C544">
         <v>-1</v>
@@ -8976,7 +8994,7 @@
         <v>591</v>
       </c>
       <c r="B545" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C545">
         <v>-1</v>
@@ -8987,7 +9005,7 @@
         <v>591</v>
       </c>
       <c r="B546" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C546">
         <v>-1</v>
@@ -8998,7 +9016,7 @@
         <v>591</v>
       </c>
       <c r="B547" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C547">
         <v>-1</v>
@@ -9009,7 +9027,7 @@
         <v>591</v>
       </c>
       <c r="B548" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C548">
         <v>-1</v>
@@ -9020,7 +9038,7 @@
         <v>591</v>
       </c>
       <c r="B549" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C549">
         <v>-1</v>
@@ -9031,7 +9049,7 @@
         <v>591</v>
       </c>
       <c r="B550" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C550">
         <v>-1</v>
@@ -9042,7 +9060,7 @@
         <v>591</v>
       </c>
       <c r="B551" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C551">
         <v>-1</v>
@@ -9053,7 +9071,7 @@
         <v>591</v>
       </c>
       <c r="B552" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C552">
         <v>-1</v>
@@ -9064,7 +9082,7 @@
         <v>591</v>
       </c>
       <c r="B553" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C553">
         <v>-1</v>
@@ -9075,7 +9093,7 @@
         <v>591</v>
       </c>
       <c r="B554" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C554">
         <v>-1</v>
@@ -9086,7 +9104,7 @@
         <v>591</v>
       </c>
       <c r="B555" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C555">
         <v>-1</v>
@@ -9097,7 +9115,7 @@
         <v>591</v>
       </c>
       <c r="B556" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C556">
         <v>-1</v>
@@ -9108,7 +9126,7 @@
         <v>591</v>
       </c>
       <c r="B557" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C557">
         <v>-1</v>
@@ -9119,7 +9137,7 @@
         <v>591</v>
       </c>
       <c r="B558" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C558">
         <v>-1</v>
@@ -9130,7 +9148,7 @@
         <v>591</v>
       </c>
       <c r="B559" t="s">
-        <v>22</v>
+        <v>642</v>
       </c>
       <c r="C559">
         <v>-1</v>
@@ -9141,7 +9159,7 @@
         <v>591</v>
       </c>
       <c r="B560" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C560">
         <v>-1</v>
@@ -9152,7 +9170,7 @@
         <v>591</v>
       </c>
       <c r="B561" t="s">
-        <v>380</v>
+        <v>644</v>
       </c>
       <c r="C561">
         <v>-1</v>
@@ -9163,7 +9181,7 @@
         <v>591</v>
       </c>
       <c r="B562" t="s">
-        <v>646</v>
+        <v>22</v>
       </c>
       <c r="C562">
         <v>-1</v>
@@ -9174,7 +9192,7 @@
         <v>591</v>
       </c>
       <c r="B563" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C563">
         <v>-1</v>
@@ -9185,7 +9203,7 @@
         <v>591</v>
       </c>
       <c r="B564" t="s">
-        <v>258</v>
+        <v>380</v>
       </c>
       <c r="C564">
         <v>-1</v>
@@ -9196,7 +9214,7 @@
         <v>591</v>
       </c>
       <c r="B565" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C565">
         <v>-1</v>
@@ -9207,7 +9225,7 @@
         <v>591</v>
       </c>
       <c r="B566" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C566">
         <v>-1</v>
@@ -9218,7 +9236,7 @@
         <v>591</v>
       </c>
       <c r="B567" t="s">
-        <v>650</v>
+        <v>258</v>
       </c>
       <c r="C567">
         <v>-1</v>
@@ -9229,9 +9247,42 @@
         <v>591</v>
       </c>
       <c r="B568" t="s">
+        <v>648</v>
+      </c>
+      <c r="C568">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>591</v>
+      </c>
+      <c r="B569" t="s">
+        <v>649</v>
+      </c>
+      <c r="C569">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>591</v>
+      </c>
+      <c r="B570" t="s">
+        <v>650</v>
+      </c>
+      <c r="C570">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>591</v>
+      </c>
+      <c r="B571" t="s">
         <v>651</v>
       </c>
-      <c r="C568">
+      <c r="C571">
         <v>-1</v>
       </c>
     </row>
